--- a/SCH-STH/Impact assessments/Kenya/ke_sch_sth_sppm_202403_1_wash.xlsx
+++ b/SCH-STH/Impact assessments/Kenya/ke_sch_sth_sppm_202403_1_wash.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Kenya\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\SCH-STH\Impact assessments\Kenya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A956F2AC-061A-4EF4-A7AC-EE854EF7897B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4D59E2-08F8-42BE-81A0-424B2054ABB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="479">
   <si>
     <t>type</t>
   </si>
@@ -70,15 +70,9 @@
     <t>DIVISION OF VECTOR BORNE &amp; NEGLECTED TROPICAL DISEASES</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>Team Number</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>. &gt; 400000 and . &lt; 500000</t>
   </si>
   <si>
-    <t>Out of range</t>
-  </si>
-  <si>
     <t>Re_enter_Child_ID</t>
   </si>
   <si>
@@ -1222,9 +1213,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>select_age</t>
-  </si>
-  <si>
     <t>w_nb_people_in_household</t>
   </si>
   <si>
@@ -1267,9 +1255,6 @@
     <t>w_surface_water_other</t>
   </si>
   <si>
-    <t>w_duration_to reach_water_source</t>
-  </si>
-  <si>
     <t>select_multiple wtater_source_cooking</t>
   </si>
   <si>
@@ -1462,9 +1447,6 @@
     <t>if (${C2} = 1,'',substring-after(${C1},${w_code_id}))</t>
   </si>
   <si>
-    <t>not(selected(${C3}, ${Q1}))</t>
-  </si>
-  <si>
     <t>This ID has already been entered go back and change it</t>
   </si>
   <si>
@@ -1478,6 +1460,18 @@
   </si>
   <si>
     <t>w_end</t>
+  </si>
+  <si>
+    <t>w_duration_to_reach_water_source</t>
+  </si>
+  <si>
+    <t>select one age</t>
+  </si>
+  <si>
+    <t>not(selected(${C3}, ${w_code_id}))</t>
+  </si>
+  <si>
+    <t>Out of range! Must be between 400000 and 500000</t>
   </si>
 </sst>
 </file>
@@ -1908,9 +1902,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,25 +1929,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>2</v>
@@ -1962,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1970,7 +1964,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>9</v>
@@ -1984,173 +1978,173 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="11" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="K6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="K7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>372</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F10" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -2159,20 +2153,20 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="9" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B13" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -2181,170 +2175,173 @@
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
+      <c r="F14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="H14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="J14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="J14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>478</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="H16" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B17" t="s">
+        <v>460</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="B17" t="s">
-        <v>465</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C18" s="13"/>
       <c r="F18" s="13"/>
       <c r="I18" s="13" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C19" s="13"/>
       <c r="F19" s="13"/>
       <c r="I19" s="14" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="L20" t="s">
-        <v>162</v>
+        <v>463</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>395</v>
+        <v>476</v>
       </c>
       <c r="B22" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2352,13 +2349,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -2366,218 +2363,218 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="11" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B25" t="s">
         <v>397</v>
       </c>
-      <c r="B25" t="s">
-        <v>401</v>
-      </c>
       <c r="C25" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="J25" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B26" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B28" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B31" t="s">
-        <v>410</v>
+        <v>475</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B32" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B33" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B34" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J34" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B35" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J35" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="J36" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2585,13 +2582,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -2599,128 +2596,128 @@
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="11" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B38" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J38" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J39" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B40" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="J40" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B41" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="J41" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B42" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="J42" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B43" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="J43" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J44" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2728,13 +2725,13 @@
         <v>8</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -2742,136 +2739,136 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="11" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B46" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="J46" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B47" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="J47" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B48" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="J48" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B49" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="J49" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B50" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="J50" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B51" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J51" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="10"/>
@@ -2890,7 +2887,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2898,7 +2895,7 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -2924,1108 +2921,1108 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C30" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C35" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C44" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C45" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C51" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D60" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D61" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C63" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C69" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D72" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D73" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D74" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D75" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D76" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C78" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D78" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D79" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C80" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D80" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C81" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D81" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D82" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C83" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D83" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B85">
         <v>101</v>
@@ -4034,12 +4031,12 @@
         <v>101</v>
       </c>
       <c r="E85" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B86">
         <v>102</v>
@@ -4048,12 +4045,12 @@
         <v>102</v>
       </c>
       <c r="E86" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B87">
         <v>103</v>
@@ -4062,12 +4059,12 @@
         <v>103</v>
       </c>
       <c r="E87" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B88">
         <v>104</v>
@@ -4076,12 +4073,12 @@
         <v>104</v>
       </c>
       <c r="E88" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B89">
         <v>105</v>
@@ -4090,12 +4087,12 @@
         <v>105</v>
       </c>
       <c r="E89" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B90">
         <v>106</v>
@@ -4104,12 +4101,12 @@
         <v>106</v>
       </c>
       <c r="E90" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B91">
         <v>107</v>
@@ -4118,12 +4115,12 @@
         <v>107</v>
       </c>
       <c r="E91" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B92">
         <v>108</v>
@@ -4132,12 +4129,12 @@
         <v>108</v>
       </c>
       <c r="E92" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B93">
         <v>109</v>
@@ -4146,12 +4143,12 @@
         <v>109</v>
       </c>
       <c r="E93" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B94">
         <v>110</v>
@@ -4160,12 +4157,12 @@
         <v>110</v>
       </c>
       <c r="E94" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B95">
         <v>111</v>
@@ -4174,12 +4171,12 @@
         <v>111</v>
       </c>
       <c r="E95" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B96">
         <v>112</v>
@@ -4188,12 +4185,12 @@
         <v>112</v>
       </c>
       <c r="E96" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B97">
         <v>113</v>
@@ -4202,12 +4199,12 @@
         <v>113</v>
       </c>
       <c r="E97" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B98">
         <v>114</v>
@@ -4216,12 +4213,12 @@
         <v>114</v>
       </c>
       <c r="E98" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B99">
         <v>115</v>
@@ -4230,12 +4227,12 @@
         <v>115</v>
       </c>
       <c r="E99" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B100">
         <v>116</v>
@@ -4244,12 +4241,12 @@
         <v>116</v>
       </c>
       <c r="E100" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B101">
         <v>117</v>
@@ -4258,12 +4255,12 @@
         <v>117</v>
       </c>
       <c r="E101" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B102">
         <v>118</v>
@@ -4272,12 +4269,12 @@
         <v>118</v>
       </c>
       <c r="E102" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B103">
         <v>119</v>
@@ -4286,12 +4283,12 @@
         <v>119</v>
       </c>
       <c r="E103" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B104">
         <v>120</v>
@@ -4300,12 +4297,12 @@
         <v>120</v>
       </c>
       <c r="E104" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B105">
         <v>121</v>
@@ -4314,12 +4311,12 @@
         <v>121</v>
       </c>
       <c r="E105" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B106">
         <v>122</v>
@@ -4328,12 +4325,12 @@
         <v>122</v>
       </c>
       <c r="E106" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B107">
         <v>123</v>
@@ -4342,12 +4339,12 @@
         <v>123</v>
       </c>
       <c r="E107" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B108">
         <v>124</v>
@@ -4356,12 +4353,12 @@
         <v>124</v>
       </c>
       <c r="E108" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B109">
         <v>125</v>
@@ -4370,12 +4367,12 @@
         <v>125</v>
       </c>
       <c r="E109" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B110">
         <v>126</v>
@@ -4384,12 +4381,12 @@
         <v>126</v>
       </c>
       <c r="E110" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B111">
         <v>127</v>
@@ -4398,12 +4395,12 @@
         <v>127</v>
       </c>
       <c r="E111" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B112">
         <v>128</v>
@@ -4412,12 +4409,12 @@
         <v>128</v>
       </c>
       <c r="E112" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B113">
         <v>129</v>
@@ -4426,12 +4423,12 @@
         <v>129</v>
       </c>
       <c r="E113" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B114">
         <v>130</v>
@@ -4440,12 +4437,12 @@
         <v>130</v>
       </c>
       <c r="E114" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B115">
         <v>131</v>
@@ -4454,12 +4451,12 @@
         <v>131</v>
       </c>
       <c r="E115" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B116">
         <v>132</v>
@@ -4468,12 +4465,12 @@
         <v>132</v>
       </c>
       <c r="E116" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B117">
         <v>133</v>
@@ -4482,12 +4479,12 @@
         <v>133</v>
       </c>
       <c r="E117" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B118">
         <v>134</v>
@@ -4496,12 +4493,12 @@
         <v>134</v>
       </c>
       <c r="E118" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B119">
         <v>135</v>
@@ -4510,12 +4507,12 @@
         <v>135</v>
       </c>
       <c r="E119" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B120">
         <v>136</v>
@@ -4524,12 +4521,12 @@
         <v>136</v>
       </c>
       <c r="E120" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B121">
         <v>137</v>
@@ -4538,12 +4535,12 @@
         <v>137</v>
       </c>
       <c r="E121" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B122">
         <v>138</v>
@@ -4552,12 +4549,12 @@
         <v>138</v>
       </c>
       <c r="E122" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B123">
         <v>139</v>
@@ -4566,12 +4563,12 @@
         <v>139</v>
       </c>
       <c r="E123" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B124">
         <v>140</v>
@@ -4580,12 +4577,12 @@
         <v>140</v>
       </c>
       <c r="E124" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B125">
         <v>141</v>
@@ -4594,12 +4591,12 @@
         <v>141</v>
       </c>
       <c r="E125" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B126">
         <v>142</v>
@@ -4608,12 +4605,12 @@
         <v>142</v>
       </c>
       <c r="E126" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B127">
         <v>143</v>
@@ -4622,12 +4619,12 @@
         <v>143</v>
       </c>
       <c r="E127" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B128">
         <v>144</v>
@@ -4636,12 +4633,12 @@
         <v>144</v>
       </c>
       <c r="E128" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B129">
         <v>145</v>
@@ -4650,12 +4647,12 @@
         <v>145</v>
       </c>
       <c r="E129" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B130">
         <v>146</v>
@@ -4664,12 +4661,12 @@
         <v>146</v>
       </c>
       <c r="E130" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B131">
         <v>147</v>
@@ -4678,12 +4675,12 @@
         <v>147</v>
       </c>
       <c r="E131" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B132">
         <v>148</v>
@@ -4692,12 +4689,12 @@
         <v>148</v>
       </c>
       <c r="E132" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B133">
         <v>149</v>
@@ -4706,12 +4703,12 @@
         <v>149</v>
       </c>
       <c r="E133" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B134">
         <v>150</v>
@@ -4720,12 +4717,12 @@
         <v>150</v>
       </c>
       <c r="E134" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B135">
         <v>151</v>
@@ -4734,12 +4731,12 @@
         <v>151</v>
       </c>
       <c r="E135" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B136">
         <v>152</v>
@@ -4748,12 +4745,12 @@
         <v>152</v>
       </c>
       <c r="E136" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B137">
         <v>153</v>
@@ -4762,12 +4759,12 @@
         <v>153</v>
       </c>
       <c r="E137" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B138">
         <v>154</v>
@@ -4776,12 +4773,12 @@
         <v>154</v>
       </c>
       <c r="E138" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B139">
         <v>155</v>
@@ -4790,12 +4787,12 @@
         <v>155</v>
       </c>
       <c r="E139" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B140">
         <v>156</v>
@@ -4804,12 +4801,12 @@
         <v>156</v>
       </c>
       <c r="E140" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B141">
         <v>157</v>
@@ -4818,12 +4815,12 @@
         <v>157</v>
       </c>
       <c r="E141" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B142">
         <v>158</v>
@@ -4832,12 +4829,12 @@
         <v>158</v>
       </c>
       <c r="E142" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B143">
         <v>159</v>
@@ -4846,12 +4843,12 @@
         <v>159</v>
       </c>
       <c r="E143" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B144">
         <v>160</v>
@@ -4860,12 +4857,12 @@
         <v>160</v>
       </c>
       <c r="E144" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B145">
         <v>161</v>
@@ -4874,12 +4871,12 @@
         <v>161</v>
       </c>
       <c r="E145" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B146">
         <v>162</v>
@@ -4888,12 +4885,12 @@
         <v>162</v>
       </c>
       <c r="E146" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B147">
         <v>163</v>
@@ -4902,12 +4899,12 @@
         <v>163</v>
       </c>
       <c r="E147" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B148">
         <v>164</v>
@@ -4916,12 +4913,12 @@
         <v>164</v>
       </c>
       <c r="E148" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B149">
         <v>165</v>
@@ -4930,12 +4927,12 @@
         <v>165</v>
       </c>
       <c r="E149" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B150">
         <v>166</v>
@@ -4944,12 +4941,12 @@
         <v>166</v>
       </c>
       <c r="E150" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B151">
         <v>167</v>
@@ -4958,12 +4955,12 @@
         <v>167</v>
       </c>
       <c r="E151" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B152">
         <v>168</v>
@@ -4972,56 +4969,56 @@
         <v>168</v>
       </c>
       <c r="E152" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B154" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C154" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B155" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C155" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B157" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B158" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B160">
         <v>8</v>
@@ -5032,7 +5029,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B161">
         <v>9</v>
@@ -5043,7 +5040,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B162">
         <v>10</v>
@@ -5054,7 +5051,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B163">
         <v>11</v>
@@ -5065,7 +5062,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B164">
         <v>12</v>
@@ -5076,7 +5073,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B165">
         <v>13</v>
@@ -5087,7 +5084,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B166">
         <v>14</v>
@@ -5098,1102 +5095,1102 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B168" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C168" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B169" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C169" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B171" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C171" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B172" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C172" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B173" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C173" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B174" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C174" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C175" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B177" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C177" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B179" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C179" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B180" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B181" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B182" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C182" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B184" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B185" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B186" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B187" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C187" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B188" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C188" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B189" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C189" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B190" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C190" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B191" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B192" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C192" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B193" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C193" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B194" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C194" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B196" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B197" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C197" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B198" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C198" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B199" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C199" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B201" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C201" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B202" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C202" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B203" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C203" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B204" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C204" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B205" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C205" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B207" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C207" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B208" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C208" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B209" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C209" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B210" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C210" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B211" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C211" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B212" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C212" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B213" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C213" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B214" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C214" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B215" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C215" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B217" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C217" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B218" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C218" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B219" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C219" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B221" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C221" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B222" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C222" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B223" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C223" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B224" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C224" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B225" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C225" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B226" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C226" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B228" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C228" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B229" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C229" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B230" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C230" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B231" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C231" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B232" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C232" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B233" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C233" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B234" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C234" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B235" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C235" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B236" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C236" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B237" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C237" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B238" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C238" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B240" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C240" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B241" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C241" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B242" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C242" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B244" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C244" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B245" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C245" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B246" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C246" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B247" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C247" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B248" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C248" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B249" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C249" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B250" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C250" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B251" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C251" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B253" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C253" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B254" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C254" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B255" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C255" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B256" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C256" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B257" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C257" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B258" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C258" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B259" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C259" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B260" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C260" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B261" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C261" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B262" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C262" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B263" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C263" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B264" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C264" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B265" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C265" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B266" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C266" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B267" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C267" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B268" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C268" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B269" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C269" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B270" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C270" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B271" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C271" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B272" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C272" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B273" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C273" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B274" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C274" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B275" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C275" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B276" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C276" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B277" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C277" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B278" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C278" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -6224,25 +6221,25 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -6252,6 +6249,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F61D857ACC8084D9287671D8B7E15F4" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c3a67db788bfb057b2db4972c06362d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="92042fd9-f4c9-49ed-97f1-ba485e322b1e" xmlns:ns3="744cc826-a471-4feb-879c-6424ce8a761f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13059b5e6b4741244ec9ec4e04bff113" ns2:_="" ns3:_="">
     <xsd:import namespace="92042fd9-f4c9-49ed-97f1-ba485e322b1e"/>
@@ -6486,16 +6492,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA7685D-B04F-4991-951F-5668DE28AE41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D52A5182-A145-49DC-8B93-E3BAA13C11F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6512,12 +6517,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA7685D-B04F-4991-951F-5668DE28AE41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SCH-STH/Impact assessments/Kenya/ke_sch_sth_sppm_202403_1_wash.xlsx
+++ b/SCH-STH/Impact assessments/Kenya/ke_sch_sth_sppm_202403_1_wash.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\SCH-STH\Impact assessments\Kenya\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Kenya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4D59E2-08F8-42BE-81A0-424B2054ABB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AE72F1-15D8-4AC4-9F67-C3FD7A1B87D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>begin_repeat</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>barcode</t>
   </si>
   <si>
@@ -1472,6 +1469,9 @@
   </si>
   <si>
     <t>Out of range! Must be between 400000 and 500000</t>
+  </si>
+  <si>
+    <t>Participants</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +1904,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,25 +1929,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>339</v>
-      </c>
       <c r="E1" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>2</v>
@@ -1956,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1964,7 +1964,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>9</v>
@@ -1978,23 +1978,23 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2002,16 +2002,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>363</v>
-      </c>
       <c r="J4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2019,13 +2019,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2033,33 +2033,33 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" t="s">
         <v>366</v>
-      </c>
-      <c r="B7" t="s">
-        <v>367</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2067,7 +2067,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>19</v>
@@ -2076,7 +2076,7 @@
         <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2084,7 +2084,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>22</v>
@@ -2099,7 +2099,7 @@
         <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2107,7 +2107,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>26</v>
@@ -2116,24 +2116,24 @@
         <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2141,10 +2141,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>28</v>
+        <v>478</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -2153,20 +2153,20 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B13" t="s">
         <v>378</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -2175,30 +2175,30 @@
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="F14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="H14" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2206,25 +2206,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2232,62 +2232,62 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="H16" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C18" s="13"/>
       <c r="F18" s="13"/>
       <c r="I18" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C19" s="13"/>
       <c r="F19" s="13"/>
       <c r="I19" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2295,53 +2295,53 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2349,13 +2349,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -2363,7 +2363,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -2373,47 +2373,47 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="J26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -2421,33 +2421,33 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2455,16 +2455,16 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2472,92 +2472,92 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B31" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="H35" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2565,16 +2565,16 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2582,13 +2582,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -2596,26 +2596,26 @@
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2623,84 +2623,84 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B41" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B43" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2708,16 +2708,16 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2725,13 +2725,13 @@
         <v>8</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="D45" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -2739,114 +2739,114 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B46" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B48" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B49" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B50" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="J51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2854,21 +2854,21 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="J52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="10"/>
@@ -2887,7 +2887,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2895,7 +2895,7 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -2921,107 +2921,107 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
         <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
         <v>84</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
         <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
         <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
         <v>90</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
         <v>92</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3029,10 +3029,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3040,10 +3040,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3051,10 +3051,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3062,10 +3062,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3073,13 +3073,13 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3087,13 +3087,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,13 +3101,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3115,13 +3115,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3129,13 +3129,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3143,13 +3143,13 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3157,13 +3157,13 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3171,13 +3171,13 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3185,13 +3185,13 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3199,13 +3199,13 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3213,13 +3213,13 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3227,13 +3227,13 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3241,13 +3241,13 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3255,13 +3255,13 @@
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3269,13 +3269,13 @@
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3283,13 +3283,13 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3297,13 +3297,13 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3311,13 +3311,13 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3325,13 +3325,13 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3339,13 +3339,13 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3353,13 +3353,13 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3367,13 +3367,13 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3381,13 +3381,13 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,13 +3395,13 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3409,13 +3409,13 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3423,13 +3423,13 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3437,13 +3437,13 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3451,13 +3451,13 @@
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3465,13 +3465,13 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C44" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3479,13 +3479,13 @@
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3493,13 +3493,13 @@
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3507,13 +3507,13 @@
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3521,13 +3521,13 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3535,13 +3535,13 @@
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3549,13 +3549,13 @@
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3563,13 +3563,13 @@
         <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C51" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3577,13 +3577,13 @@
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3591,13 +3591,13 @@
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3605,13 +3605,13 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3619,13 +3619,13 @@
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3633,13 +3633,13 @@
         <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3647,13 +3647,13 @@
         <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3661,13 +3661,13 @@
         <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3675,13 +3675,13 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3689,13 +3689,13 @@
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3703,13 +3703,13 @@
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3717,13 +3717,13 @@
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3731,13 +3731,13 @@
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3745,13 +3745,13 @@
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3759,13 +3759,13 @@
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3773,13 +3773,13 @@
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3787,13 +3787,13 @@
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3801,13 +3801,13 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3815,13 +3815,13 @@
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3829,13 +3829,13 @@
         <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3843,13 +3843,13 @@
         <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3857,13 +3857,13 @@
         <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3871,13 +3871,13 @@
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3885,13 +3885,13 @@
         <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3899,13 +3899,13 @@
         <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3913,13 +3913,13 @@
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3927,13 +3927,13 @@
         <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3941,13 +3941,13 @@
         <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3955,13 +3955,13 @@
         <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3969,13 +3969,13 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3983,13 +3983,13 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3997,13 +3997,13 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4011,18 +4011,18 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B85">
         <v>101</v>
@@ -4031,12 +4031,12 @@
         <v>101</v>
       </c>
       <c r="E85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B86">
         <v>102</v>
@@ -4045,12 +4045,12 @@
         <v>102</v>
       </c>
       <c r="E86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B87">
         <v>103</v>
@@ -4059,12 +4059,12 @@
         <v>103</v>
       </c>
       <c r="E87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B88">
         <v>104</v>
@@ -4073,12 +4073,12 @@
         <v>104</v>
       </c>
       <c r="E88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B89">
         <v>105</v>
@@ -4087,12 +4087,12 @@
         <v>105</v>
       </c>
       <c r="E89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B90">
         <v>106</v>
@@ -4101,12 +4101,12 @@
         <v>106</v>
       </c>
       <c r="E90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B91">
         <v>107</v>
@@ -4115,12 +4115,12 @@
         <v>107</v>
       </c>
       <c r="E91" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B92">
         <v>108</v>
@@ -4129,12 +4129,12 @@
         <v>108</v>
       </c>
       <c r="E92" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B93">
         <v>109</v>
@@ -4143,12 +4143,12 @@
         <v>109</v>
       </c>
       <c r="E93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B94">
         <v>110</v>
@@ -4157,12 +4157,12 @@
         <v>110</v>
       </c>
       <c r="E94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B95">
         <v>111</v>
@@ -4171,12 +4171,12 @@
         <v>111</v>
       </c>
       <c r="E95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B96">
         <v>112</v>
@@ -4185,12 +4185,12 @@
         <v>112</v>
       </c>
       <c r="E96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B97">
         <v>113</v>
@@ -4199,12 +4199,12 @@
         <v>113</v>
       </c>
       <c r="E97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B98">
         <v>114</v>
@@ -4213,12 +4213,12 @@
         <v>114</v>
       </c>
       <c r="E98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B99">
         <v>115</v>
@@ -4227,12 +4227,12 @@
         <v>115</v>
       </c>
       <c r="E99" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B100">
         <v>116</v>
@@ -4241,12 +4241,12 @@
         <v>116</v>
       </c>
       <c r="E100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B101">
         <v>117</v>
@@ -4255,12 +4255,12 @@
         <v>117</v>
       </c>
       <c r="E101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B102">
         <v>118</v>
@@ -4269,12 +4269,12 @@
         <v>118</v>
       </c>
       <c r="E102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B103">
         <v>119</v>
@@ -4283,12 +4283,12 @@
         <v>119</v>
       </c>
       <c r="E103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B104">
         <v>120</v>
@@ -4297,12 +4297,12 @@
         <v>120</v>
       </c>
       <c r="E104" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B105">
         <v>121</v>
@@ -4311,12 +4311,12 @@
         <v>121</v>
       </c>
       <c r="E105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B106">
         <v>122</v>
@@ -4325,12 +4325,12 @@
         <v>122</v>
       </c>
       <c r="E106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B107">
         <v>123</v>
@@ -4339,12 +4339,12 @@
         <v>123</v>
       </c>
       <c r="E107" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B108">
         <v>124</v>
@@ -4353,12 +4353,12 @@
         <v>124</v>
       </c>
       <c r="E108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B109">
         <v>125</v>
@@ -4367,12 +4367,12 @@
         <v>125</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B110">
         <v>126</v>
@@ -4381,12 +4381,12 @@
         <v>126</v>
       </c>
       <c r="E110" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B111">
         <v>127</v>
@@ -4395,12 +4395,12 @@
         <v>127</v>
       </c>
       <c r="E111" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B112">
         <v>128</v>
@@ -4409,12 +4409,12 @@
         <v>128</v>
       </c>
       <c r="E112" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B113">
         <v>129</v>
@@ -4423,12 +4423,12 @@
         <v>129</v>
       </c>
       <c r="E113" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B114">
         <v>130</v>
@@ -4437,12 +4437,12 @@
         <v>130</v>
       </c>
       <c r="E114" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B115">
         <v>131</v>
@@ -4451,12 +4451,12 @@
         <v>131</v>
       </c>
       <c r="E115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B116">
         <v>132</v>
@@ -4465,12 +4465,12 @@
         <v>132</v>
       </c>
       <c r="E116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B117">
         <v>133</v>
@@ -4479,12 +4479,12 @@
         <v>133</v>
       </c>
       <c r="E117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B118">
         <v>134</v>
@@ -4493,12 +4493,12 @@
         <v>134</v>
       </c>
       <c r="E118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B119">
         <v>135</v>
@@ -4507,12 +4507,12 @@
         <v>135</v>
       </c>
       <c r="E119" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B120">
         <v>136</v>
@@ -4521,12 +4521,12 @@
         <v>136</v>
       </c>
       <c r="E120" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B121">
         <v>137</v>
@@ -4535,12 +4535,12 @@
         <v>137</v>
       </c>
       <c r="E121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B122">
         <v>138</v>
@@ -4549,12 +4549,12 @@
         <v>138</v>
       </c>
       <c r="E122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B123">
         <v>139</v>
@@ -4563,12 +4563,12 @@
         <v>139</v>
       </c>
       <c r="E123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B124">
         <v>140</v>
@@ -4577,12 +4577,12 @@
         <v>140</v>
       </c>
       <c r="E124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B125">
         <v>141</v>
@@ -4591,12 +4591,12 @@
         <v>141</v>
       </c>
       <c r="E125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B126">
         <v>142</v>
@@ -4605,12 +4605,12 @@
         <v>142</v>
       </c>
       <c r="E126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B127">
         <v>143</v>
@@ -4619,12 +4619,12 @@
         <v>143</v>
       </c>
       <c r="E127" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B128">
         <v>144</v>
@@ -4633,12 +4633,12 @@
         <v>144</v>
       </c>
       <c r="E128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B129">
         <v>145</v>
@@ -4647,12 +4647,12 @@
         <v>145</v>
       </c>
       <c r="E129" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B130">
         <v>146</v>
@@ -4661,12 +4661,12 @@
         <v>146</v>
       </c>
       <c r="E130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B131">
         <v>147</v>
@@ -4675,12 +4675,12 @@
         <v>147</v>
       </c>
       <c r="E131" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B132">
         <v>148</v>
@@ -4689,12 +4689,12 @@
         <v>148</v>
       </c>
       <c r="E132" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B133">
         <v>149</v>
@@ -4703,12 +4703,12 @@
         <v>149</v>
       </c>
       <c r="E133" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B134">
         <v>150</v>
@@ -4717,12 +4717,12 @@
         <v>150</v>
       </c>
       <c r="E134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B135">
         <v>151</v>
@@ -4731,12 +4731,12 @@
         <v>151</v>
       </c>
       <c r="E135" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B136">
         <v>152</v>
@@ -4745,12 +4745,12 @@
         <v>152</v>
       </c>
       <c r="E136" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B137">
         <v>153</v>
@@ -4759,12 +4759,12 @@
         <v>153</v>
       </c>
       <c r="E137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B138">
         <v>154</v>
@@ -4773,12 +4773,12 @@
         <v>154</v>
       </c>
       <c r="E138" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B139">
         <v>155</v>
@@ -4787,12 +4787,12 @@
         <v>155</v>
       </c>
       <c r="E139" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B140">
         <v>156</v>
@@ -4801,12 +4801,12 @@
         <v>156</v>
       </c>
       <c r="E140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B141">
         <v>157</v>
@@ -4815,12 +4815,12 @@
         <v>157</v>
       </c>
       <c r="E141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B142">
         <v>158</v>
@@ -4829,12 +4829,12 @@
         <v>158</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B143">
         <v>159</v>
@@ -4843,12 +4843,12 @@
         <v>159</v>
       </c>
       <c r="E143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B144">
         <v>160</v>
@@ -4857,12 +4857,12 @@
         <v>160</v>
       </c>
       <c r="E144" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B145">
         <v>161</v>
@@ -4871,12 +4871,12 @@
         <v>161</v>
       </c>
       <c r="E145" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B146">
         <v>162</v>
@@ -4885,12 +4885,12 @@
         <v>162</v>
       </c>
       <c r="E146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B147">
         <v>163</v>
@@ -4899,12 +4899,12 @@
         <v>163</v>
       </c>
       <c r="E147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B148">
         <v>164</v>
@@ -4913,12 +4913,12 @@
         <v>164</v>
       </c>
       <c r="E148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B149">
         <v>165</v>
@@ -4927,12 +4927,12 @@
         <v>165</v>
       </c>
       <c r="E149" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B150">
         <v>166</v>
@@ -4941,12 +4941,12 @@
         <v>166</v>
       </c>
       <c r="E150" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B151">
         <v>167</v>
@@ -4955,12 +4955,12 @@
         <v>167</v>
       </c>
       <c r="E151" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B152">
         <v>168</v>
@@ -4969,56 +4969,56 @@
         <v>168</v>
       </c>
       <c r="E152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B154" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C154" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B155" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C155" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B160">
         <v>8</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B161">
         <v>9</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B162">
         <v>10</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B163">
         <v>11</v>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B164">
         <v>12</v>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B165">
         <v>13</v>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B166">
         <v>14</v>
@@ -5095,1102 +5095,1102 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B168" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C168" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B169" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C169" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B171" t="s">
+        <v>162</v>
+      </c>
+      <c r="C171" t="s">
         <v>163</v>
-      </c>
-      <c r="C171" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B172" t="s">
+        <v>164</v>
+      </c>
+      <c r="C172" t="s">
         <v>165</v>
-      </c>
-      <c r="C172" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B173" t="s">
+        <v>166</v>
+      </c>
+      <c r="C173" t="s">
         <v>167</v>
-      </c>
-      <c r="C173" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B174" t="s">
+        <v>168</v>
+      </c>
+      <c r="C174" t="s">
         <v>169</v>
-      </c>
-      <c r="C174" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B175" t="s">
+        <v>170</v>
+      </c>
+      <c r="C175" t="s">
         <v>171</v>
-      </c>
-      <c r="C175" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B176" t="s">
+        <v>172</v>
+      </c>
+      <c r="C176" t="s">
         <v>173</v>
-      </c>
-      <c r="C176" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B177" t="s">
+        <v>174</v>
+      </c>
+      <c r="C177" t="s">
         <v>175</v>
-      </c>
-      <c r="C177" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B178" t="s">
+        <v>176</v>
+      </c>
+      <c r="C178" t="s">
         <v>177</v>
-      </c>
-      <c r="C178" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B179" t="s">
+        <v>178</v>
+      </c>
+      <c r="C179" t="s">
         <v>179</v>
-      </c>
-      <c r="C179" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" t="s">
         <v>181</v>
-      </c>
-      <c r="C180" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B181" t="s">
+        <v>182</v>
+      </c>
+      <c r="C181" t="s">
         <v>183</v>
-      </c>
-      <c r="C181" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B182" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C182" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B184" t="s">
+        <v>184</v>
+      </c>
+      <c r="C184" t="s">
         <v>185</v>
-      </c>
-      <c r="C184" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B185" t="s">
+        <v>186</v>
+      </c>
+      <c r="C185" t="s">
         <v>187</v>
-      </c>
-      <c r="C185" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B186" t="s">
+        <v>188</v>
+      </c>
+      <c r="C186" t="s">
         <v>189</v>
-      </c>
-      <c r="C186" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B187" t="s">
+        <v>190</v>
+      </c>
+      <c r="C187" t="s">
         <v>191</v>
-      </c>
-      <c r="C187" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B188" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C188" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B189" t="s">
+        <v>172</v>
+      </c>
+      <c r="C189" t="s">
         <v>173</v>
-      </c>
-      <c r="C189" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B190" t="s">
+        <v>174</v>
+      </c>
+      <c r="C190" t="s">
         <v>175</v>
-      </c>
-      <c r="C190" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B191" t="s">
+        <v>193</v>
+      </c>
+      <c r="C191" t="s">
         <v>194</v>
-      </c>
-      <c r="C191" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B192" t="s">
+        <v>195</v>
+      </c>
+      <c r="C192" t="s">
         <v>196</v>
-      </c>
-      <c r="C192" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B193" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C193" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B194" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C194" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B196" t="s">
+        <v>198</v>
+      </c>
+      <c r="C196" t="s">
         <v>199</v>
-      </c>
-      <c r="C196" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B197" t="s">
+        <v>200</v>
+      </c>
+      <c r="C197" t="s">
         <v>201</v>
-      </c>
-      <c r="C197" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B198" t="s">
+        <v>202</v>
+      </c>
+      <c r="C198" t="s">
         <v>203</v>
-      </c>
-      <c r="C198" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B199" t="s">
+        <v>204</v>
+      </c>
+      <c r="C199" t="s">
         <v>205</v>
-      </c>
-      <c r="C199" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B201" t="s">
+        <v>206</v>
+      </c>
+      <c r="C201" t="s">
         <v>207</v>
-      </c>
-      <c r="C201" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B202" t="s">
+        <v>208</v>
+      </c>
+      <c r="C202" t="s">
         <v>209</v>
-      </c>
-      <c r="C202" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B203" t="s">
+        <v>210</v>
+      </c>
+      <c r="C203" t="s">
         <v>211</v>
-      </c>
-      <c r="C203" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B204" t="s">
+        <v>212</v>
+      </c>
+      <c r="C204" t="s">
         <v>213</v>
-      </c>
-      <c r="C204" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B205" t="s">
+        <v>214</v>
+      </c>
+      <c r="C205" t="s">
         <v>215</v>
-      </c>
-      <c r="C205" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B207" t="s">
+        <v>216</v>
+      </c>
+      <c r="C207" t="s">
         <v>217</v>
-      </c>
-      <c r="C207" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B208" t="s">
+        <v>218</v>
+      </c>
+      <c r="C208" t="s">
         <v>219</v>
-      </c>
-      <c r="C208" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B209" t="s">
+        <v>220</v>
+      </c>
+      <c r="C209" t="s">
         <v>221</v>
-      </c>
-      <c r="C209" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B210" t="s">
+        <v>222</v>
+      </c>
+      <c r="C210" t="s">
         <v>223</v>
-      </c>
-      <c r="C210" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B211" t="s">
+        <v>224</v>
+      </c>
+      <c r="C211" t="s">
         <v>225</v>
-      </c>
-      <c r="C211" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B212" t="s">
+        <v>226</v>
+      </c>
+      <c r="C212" t="s">
         <v>227</v>
-      </c>
-      <c r="C212" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B213" t="s">
+        <v>228</v>
+      </c>
+      <c r="C213" t="s">
         <v>229</v>
-      </c>
-      <c r="C213" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B214" t="s">
+        <v>230</v>
+      </c>
+      <c r="C214" t="s">
         <v>231</v>
-      </c>
-      <c r="C214" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B215" t="s">
+        <v>232</v>
+      </c>
+      <c r="C215" t="s">
         <v>233</v>
-      </c>
-      <c r="C215" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B217" t="s">
+        <v>158</v>
+      </c>
+      <c r="C217" t="s">
         <v>159</v>
-      </c>
-      <c r="C217" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B218" t="s">
+        <v>160</v>
+      </c>
+      <c r="C218" t="s">
         <v>161</v>
-      </c>
-      <c r="C218" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B219" t="s">
+        <v>232</v>
+      </c>
+      <c r="C219" t="s">
         <v>233</v>
-      </c>
-      <c r="C219" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B221" t="s">
+        <v>234</v>
+      </c>
+      <c r="C221" t="s">
         <v>235</v>
-      </c>
-      <c r="C221" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B222" t="s">
+        <v>236</v>
+      </c>
+      <c r="C222" t="s">
         <v>237</v>
-      </c>
-      <c r="C222" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B223" t="s">
+        <v>238</v>
+      </c>
+      <c r="C223" t="s">
         <v>239</v>
-      </c>
-      <c r="C223" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B224" t="s">
+        <v>240</v>
+      </c>
+      <c r="C224" t="s">
         <v>241</v>
-      </c>
-      <c r="C224" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B225" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C225" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B226" t="s">
+        <v>232</v>
+      </c>
+      <c r="C226" t="s">
         <v>233</v>
-      </c>
-      <c r="C226" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B228" t="s">
+        <v>243</v>
+      </c>
+      <c r="C228" t="s">
         <v>244</v>
-      </c>
-      <c r="C228" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B229" t="s">
+        <v>245</v>
+      </c>
+      <c r="C229" t="s">
         <v>246</v>
-      </c>
-      <c r="C229" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B230" t="s">
+        <v>247</v>
+      </c>
+      <c r="C230" t="s">
         <v>248</v>
-      </c>
-      <c r="C230" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B231" t="s">
+        <v>249</v>
+      </c>
+      <c r="C231" t="s">
         <v>250</v>
-      </c>
-      <c r="C231" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B232" t="s">
+        <v>251</v>
+      </c>
+      <c r="C232" t="s">
         <v>252</v>
-      </c>
-      <c r="C232" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B233" t="s">
+        <v>253</v>
+      </c>
+      <c r="C233" t="s">
         <v>254</v>
-      </c>
-      <c r="C233" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B234" t="s">
+        <v>255</v>
+      </c>
+      <c r="C234" t="s">
         <v>256</v>
-      </c>
-      <c r="C234" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B235" t="s">
+        <v>257</v>
+      </c>
+      <c r="C235" t="s">
         <v>258</v>
-      </c>
-      <c r="C235" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B236" t="s">
+        <v>259</v>
+      </c>
+      <c r="C236" t="s">
         <v>260</v>
-      </c>
-      <c r="C236" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B237" t="s">
+        <v>261</v>
+      </c>
+      <c r="C237" t="s">
         <v>262</v>
-      </c>
-      <c r="C237" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B238" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C238" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B240" t="s">
+        <v>263</v>
+      </c>
+      <c r="C240" t="s">
         <v>264</v>
-      </c>
-      <c r="C240" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B241" t="s">
+        <v>265</v>
+      </c>
+      <c r="C241" t="s">
         <v>266</v>
-      </c>
-      <c r="C241" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B242" t="s">
+        <v>267</v>
+      </c>
+      <c r="C242" t="s">
         <v>268</v>
-      </c>
-      <c r="C242" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B244" t="s">
+        <v>269</v>
+      </c>
+      <c r="C244" t="s">
         <v>270</v>
-      </c>
-      <c r="C244" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B245" t="s">
+        <v>271</v>
+      </c>
+      <c r="C245" t="s">
         <v>272</v>
-      </c>
-      <c r="C245" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B246" t="s">
+        <v>273</v>
+      </c>
+      <c r="C246" t="s">
         <v>274</v>
-      </c>
-      <c r="C246" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B247" t="s">
+        <v>275</v>
+      </c>
+      <c r="C247" t="s">
         <v>276</v>
-      </c>
-      <c r="C247" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B248" t="s">
+        <v>277</v>
+      </c>
+      <c r="C248" t="s">
         <v>278</v>
-      </c>
-      <c r="C248" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B249" t="s">
+        <v>279</v>
+      </c>
+      <c r="C249" t="s">
         <v>280</v>
-      </c>
-      <c r="C249" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B250" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C250" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B251" t="s">
+        <v>232</v>
+      </c>
+      <c r="C251" t="s">
         <v>233</v>
-      </c>
-      <c r="C251" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B253" t="s">
+        <v>281</v>
+      </c>
+      <c r="C253" t="s">
         <v>282</v>
-      </c>
-      <c r="C253" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B254" t="s">
+        <v>283</v>
+      </c>
+      <c r="C254" t="s">
         <v>284</v>
-      </c>
-      <c r="C254" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B255" t="s">
+        <v>285</v>
+      </c>
+      <c r="C255" t="s">
         <v>286</v>
-      </c>
-      <c r="C255" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B256" t="s">
+        <v>287</v>
+      </c>
+      <c r="C256" t="s">
         <v>288</v>
-      </c>
-      <c r="C256" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B257" t="s">
+        <v>289</v>
+      </c>
+      <c r="C257" t="s">
         <v>290</v>
-      </c>
-      <c r="C257" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B258" t="s">
+        <v>291</v>
+      </c>
+      <c r="C258" t="s">
         <v>292</v>
-      </c>
-      <c r="C258" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B259" t="s">
+        <v>293</v>
+      </c>
+      <c r="C259" t="s">
         <v>294</v>
-      </c>
-      <c r="C259" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B260" t="s">
+        <v>295</v>
+      </c>
+      <c r="C260" t="s">
         <v>296</v>
-      </c>
-      <c r="C260" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B261" t="s">
+        <v>297</v>
+      </c>
+      <c r="C261" t="s">
         <v>298</v>
-      </c>
-      <c r="C261" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B262" t="s">
+        <v>299</v>
+      </c>
+      <c r="C262" t="s">
         <v>300</v>
-      </c>
-      <c r="C262" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B263" t="s">
+        <v>301</v>
+      </c>
+      <c r="C263" t="s">
         <v>302</v>
-      </c>
-      <c r="C263" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B264" t="s">
+        <v>303</v>
+      </c>
+      <c r="C264" t="s">
         <v>304</v>
-      </c>
-      <c r="C264" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B265" t="s">
+        <v>305</v>
+      </c>
+      <c r="C265" t="s">
         <v>306</v>
-      </c>
-      <c r="C265" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B266" t="s">
+        <v>307</v>
+      </c>
+      <c r="C266" t="s">
         <v>308</v>
-      </c>
-      <c r="C266" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B267" t="s">
+        <v>309</v>
+      </c>
+      <c r="C267" t="s">
         <v>310</v>
-      </c>
-      <c r="C267" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B268" t="s">
+        <v>311</v>
+      </c>
+      <c r="C268" t="s">
         <v>312</v>
-      </c>
-      <c r="C268" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B269" t="s">
+        <v>313</v>
+      </c>
+      <c r="C269" t="s">
         <v>314</v>
-      </c>
-      <c r="C269" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B270" t="s">
+        <v>315</v>
+      </c>
+      <c r="C270" t="s">
         <v>316</v>
-      </c>
-      <c r="C270" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B271" t="s">
+        <v>317</v>
+      </c>
+      <c r="C271" t="s">
         <v>318</v>
-      </c>
-      <c r="C271" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B272" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C272" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B273" t="s">
+        <v>320</v>
+      </c>
+      <c r="C273" t="s">
         <v>321</v>
-      </c>
-      <c r="C273" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B274" t="s">
+        <v>322</v>
+      </c>
+      <c r="C274" t="s">
         <v>323</v>
-      </c>
-      <c r="C274" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B275" t="s">
+        <v>324</v>
+      </c>
+      <c r="C275" t="s">
         <v>325</v>
-      </c>
-      <c r="C275" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B276" t="s">
+        <v>326</v>
+      </c>
+      <c r="C276" t="s">
         <v>327</v>
-      </c>
-      <c r="C276" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B277" t="s">
+        <v>328</v>
+      </c>
+      <c r="C277" t="s">
         <v>329</v>
-      </c>
-      <c r="C277" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B278" t="s">
+        <v>330</v>
+      </c>
+      <c r="C278" t="s">
         <v>331</v>
-      </c>
-      <c r="C278" t="s">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -6221,25 +6221,25 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -6249,15 +6249,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F61D857ACC8084D9287671D8B7E15F4" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c3a67db788bfb057b2db4972c06362d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="92042fd9-f4c9-49ed-97f1-ba485e322b1e" xmlns:ns3="744cc826-a471-4feb-879c-6424ce8a761f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13059b5e6b4741244ec9ec4e04bff113" ns2:_="" ns3:_="">
     <xsd:import namespace="92042fd9-f4c9-49ed-97f1-ba485e322b1e"/>
@@ -6492,15 +6483,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA7685D-B04F-4991-951F-5668DE28AE41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D52A5182-A145-49DC-8B93-E3BAA13C11F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6517,4 +6509,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA7685D-B04F-4991-951F-5668DE28AE41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SCH-STH/Impact assessments/Kenya/ke_sch_sth_sppm_202403_1_wash.xlsx
+++ b/SCH-STH/Impact assessments/Kenya/ke_sch_sth_sppm_202403_1_wash.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Kenya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE307E1-940A-42EB-B7C3-29E4245A1541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF26EB64-CA15-494B-AD83-D9F3FB33988E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7669" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7669" uniqueCount="1077">
   <si>
     <t>type</t>
   </si>
@@ -3267,6 +3267,9 @@
   </si>
   <si>
     <t>4030131_2</t>
+  </si>
+  <si>
+    <t>ST MARY S BOYS</t>
   </si>
 </sst>
 </file>
@@ -3383,7 +3386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3432,168 +3435,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4970,8 +4823,8 @@
   <dimension ref="A1:G1313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A659" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C694" sqref="C694:C1187"/>
+      <pane ySplit="1" topLeftCell="A557" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11078,7 +10931,7 @@
         <v>280</v>
       </c>
       <c r="B442" t="s">
-        <v>901</v>
+        <v>1076</v>
       </c>
       <c r="C442" t="s">
         <v>901</v>
@@ -16292,7 +16145,7 @@
         <v>4020334</v>
       </c>
       <c r="G815" t="s">
-        <v>901</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.25">
@@ -22784,8 +22637,8 @@
   <dimension ref="A1:R495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F495"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22874,16 +22727,16 @@
       <c r="L2" t="s">
         <v>404</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" t="s">
         <v>663</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" t="s">
         <v>854</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" t="s">
         <v>877</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" t="s">
         <v>741</v>
       </c>
     </row>
@@ -22891,19 +22744,19 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" t="s">
         <v>786</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" t="s">
         <v>399</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" t="s">
         <v>789</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" t="s">
         <v>1025</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="22">
         <v>4020112</v>
       </c>
       <c r="I3" t="s">
@@ -22915,16 +22768,16 @@
       <c r="L3" t="s">
         <v>549</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" t="s">
         <v>663</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" t="s">
         <v>855</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" t="s">
         <v>877</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" t="s">
         <v>740</v>
       </c>
     </row>
@@ -22932,22 +22785,22 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" t="s">
         <v>786</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" t="s">
         <v>399</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" t="s">
         <v>789</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" t="s">
         <v>402</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="22">
         <v>4020113</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="17" t="s">
         <v>609</v>
       </c>
       <c r="K4" t="s">
@@ -22956,16 +22809,16 @@
       <c r="L4" t="s">
         <v>534</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" t="s">
         <v>663</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" t="s">
         <v>856</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" t="s">
         <v>878</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" t="s">
         <v>744</v>
       </c>
     </row>
@@ -22973,22 +22826,22 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" t="s">
         <v>786</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" t="s">
         <v>399</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" t="s">
         <v>790</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" t="s">
         <v>403</v>
       </c>
       <c r="F5" s="22">
         <v>4020121</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" t="s">
         <v>647</v>
       </c>
       <c r="K5" t="s">
@@ -22997,16 +22850,16 @@
       <c r="L5" t="s">
         <v>519</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" t="s">
         <v>663</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" t="s">
         <v>857</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" t="s">
         <v>878</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="R5" t="s">
         <v>742</v>
       </c>
     </row>
@@ -23014,22 +22867,22 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" t="s">
         <v>786</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" t="s">
         <v>399</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" t="s">
         <v>790</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" t="s">
         <v>404</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="22">
         <v>4020122</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" t="s">
         <v>787</v>
       </c>
       <c r="K6" t="s">
@@ -23038,16 +22891,16 @@
       <c r="L6" t="s">
         <v>399</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" t="s">
         <v>663</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" t="s">
         <v>858</v>
       </c>
-      <c r="Q6" s="23" t="s">
+      <c r="Q6" t="s">
         <v>878</v>
       </c>
-      <c r="R6" s="23" t="s">
+      <c r="R6" t="s">
         <v>743</v>
       </c>
     </row>
@@ -23055,19 +22908,19 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" t="s">
         <v>786</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" t="s">
         <v>399</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" t="s">
         <v>790</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" t="s">
         <v>405</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="22">
         <v>4020123</v>
       </c>
       <c r="K7" t="s">
@@ -23076,16 +22929,16 @@
       <c r="L7" t="s">
         <v>415</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" t="s">
         <v>788</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" t="s">
         <v>850</v>
       </c>
-      <c r="Q7" s="23" t="s">
+      <c r="Q7" t="s">
         <v>850</v>
       </c>
-      <c r="R7" s="23" t="s">
+      <c r="R7" t="s">
         <v>650</v>
       </c>
     </row>
@@ -23093,19 +22946,19 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" t="s">
         <v>786</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" t="s">
         <v>399</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" t="s">
         <v>790</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" t="s">
         <v>406</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="22">
         <v>4020124</v>
       </c>
       <c r="K8" t="s">
@@ -23114,16 +22967,16 @@
       <c r="L8" t="s">
         <v>494</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="N8" t="s">
         <v>788</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" t="s">
         <v>851</v>
       </c>
-      <c r="Q8" s="23" t="s">
+      <c r="Q8" t="s">
         <v>850</v>
       </c>
-      <c r="R8" s="23" t="s">
+      <c r="R8" t="s">
         <v>649</v>
       </c>
     </row>
@@ -23131,19 +22984,19 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" t="s">
         <v>786</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" t="s">
         <v>399</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" t="s">
         <v>791</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" t="s">
         <v>407</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="22">
         <v>4020131</v>
       </c>
       <c r="K9" t="s">
@@ -23152,16 +23005,16 @@
       <c r="L9" t="s">
         <v>429</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N9" t="s">
         <v>788</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="O9" t="s">
         <v>852</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="Q9" t="s">
         <v>850</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="R9" t="s">
         <v>648</v>
       </c>
     </row>
@@ -23169,19 +23022,19 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" t="s">
         <v>786</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" t="s">
         <v>399</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" t="s">
         <v>791</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" t="s">
         <v>408</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="22">
         <v>4020132</v>
       </c>
       <c r="K10" t="s">
@@ -23190,16 +23043,16 @@
       <c r="L10" t="s">
         <v>443</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" t="s">
         <v>788</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" t="s">
         <v>853</v>
       </c>
-      <c r="Q10" s="23" t="s">
+      <c r="Q10" t="s">
         <v>851</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="R10" t="s">
         <v>653</v>
       </c>
     </row>
@@ -23228,16 +23081,16 @@
       <c r="L11" t="s">
         <v>456</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" t="s">
         <v>784</v>
       </c>
-      <c r="O11" s="25" t="s">
+      <c r="O11" s="23" t="s">
         <v>835</v>
       </c>
-      <c r="Q11" s="23" t="s">
+      <c r="Q11" t="s">
         <v>851</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="R11" t="s">
         <v>652</v>
       </c>
     </row>
@@ -23245,19 +23098,19 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" t="s">
         <v>786</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" t="s">
         <v>399</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" t="s">
         <v>791</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" t="s">
         <v>410</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="22">
         <v>4020134</v>
       </c>
       <c r="K12" t="s">
@@ -23266,16 +23119,16 @@
       <c r="L12" t="s">
         <v>465</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" t="s">
         <v>784</v>
       </c>
-      <c r="O12" s="25" t="s">
+      <c r="O12" s="23" t="s">
         <v>836</v>
       </c>
-      <c r="Q12" s="23" t="s">
+      <c r="Q12" t="s">
         <v>851</v>
       </c>
-      <c r="R12" s="23" t="s">
+      <c r="R12" t="s">
         <v>654</v>
       </c>
     </row>
@@ -23283,19 +23136,19 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" t="s">
         <v>786</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" t="s">
         <v>399</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" t="s">
         <v>792</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" t="s">
         <v>411</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="22">
         <v>4020141</v>
       </c>
       <c r="K13" t="s">
@@ -23304,16 +23157,16 @@
       <c r="L13" t="s">
         <v>481</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="N13" t="s">
         <v>784</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="23" t="s">
         <v>837</v>
       </c>
-      <c r="Q13" s="23" t="s">
+      <c r="Q13" t="s">
         <v>851</v>
       </c>
-      <c r="R13" s="23" t="s">
+      <c r="R13" t="s">
         <v>651</v>
       </c>
     </row>
@@ -23321,37 +23174,37 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" t="s">
         <v>786</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" t="s">
         <v>399</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" t="s">
         <v>792</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" t="s">
         <v>412</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="22">
         <v>4020142</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="N14" t="s">
         <v>784</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="23" t="s">
         <v>838</v>
       </c>
-      <c r="Q14" s="23" t="s">
+      <c r="Q14" t="s">
         <v>864</v>
       </c>
-      <c r="R14" s="23" t="s">
+      <c r="R14" t="s">
         <v>697</v>
       </c>
     </row>
@@ -23374,22 +23227,22 @@
       <c r="F15" s="22">
         <v>4020143</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="N15" t="s">
         <v>784</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="O15" t="s">
         <v>839</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="Q15" t="s">
         <v>864</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="R15" t="s">
         <v>696</v>
       </c>
     </row>
@@ -23412,22 +23265,22 @@
       <c r="F16" s="22">
         <v>4020144</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="N16" s="23" t="s">
+      <c r="N16" t="s">
         <v>679</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" t="s">
         <v>859</v>
       </c>
-      <c r="Q16" s="23" t="s">
+      <c r="Q16" t="s">
         <v>864</v>
       </c>
-      <c r="R16" s="23" t="s">
+      <c r="R16" t="s">
         <v>698</v>
       </c>
     </row>
@@ -23450,22 +23303,22 @@
       <c r="F17" s="22">
         <v>4020211</v>
       </c>
-      <c r="K17" s="24" t="s">
+      <c r="K17" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="17" t="s">
         <v>626</v>
       </c>
-      <c r="N17" s="23" t="s">
+      <c r="N17" t="s">
         <v>679</v>
       </c>
-      <c r="O17" s="23" t="s">
+      <c r="O17" t="s">
         <v>860</v>
       </c>
-      <c r="Q17" s="23" t="s">
+      <c r="Q17" t="s">
         <v>867</v>
       </c>
-      <c r="R17" s="23" t="s">
+      <c r="R17" t="s">
         <v>711</v>
       </c>
     </row>
@@ -23473,37 +23326,37 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" t="s">
         <v>786</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" t="s">
         <v>415</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" t="s">
         <v>793</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" t="s">
         <v>417</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="22">
         <v>4020212</v>
       </c>
-      <c r="K18" s="24" t="s">
+      <c r="K18" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="N18" s="23" t="s">
+      <c r="N18" t="s">
         <v>679</v>
       </c>
-      <c r="O18" s="23" t="s">
+      <c r="O18" t="s">
         <v>861</v>
       </c>
-      <c r="Q18" s="23" t="s">
+      <c r="Q18" t="s">
         <v>867</v>
       </c>
-      <c r="R18" s="23" t="s">
+      <c r="R18" t="s">
         <v>1017</v>
       </c>
     </row>
@@ -23526,22 +23379,22 @@
       <c r="F19" s="22">
         <v>4020213</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="K19" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="L19" s="24" t="s">
+      <c r="L19" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="N19" s="23" t="s">
+      <c r="N19" t="s">
         <v>679</v>
       </c>
-      <c r="O19" s="23" t="s">
+      <c r="O19" t="s">
         <v>862</v>
       </c>
-      <c r="Q19" s="23" t="s">
+      <c r="Q19" t="s">
         <v>867</v>
       </c>
-      <c r="R19" s="23" t="s">
+      <c r="R19" t="s">
         <v>1018</v>
       </c>
     </row>
@@ -23564,22 +23417,22 @@
       <c r="F20" s="22">
         <v>4020221</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="K20" t="s">
         <v>647</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" t="s">
         <v>663</v>
       </c>
-      <c r="N20" s="23" t="s">
+      <c r="N20" t="s">
         <v>679</v>
       </c>
-      <c r="O20" s="23" t="s">
+      <c r="O20" t="s">
         <v>863</v>
       </c>
-      <c r="Q20" s="23" t="s">
+      <c r="Q20" t="s">
         <v>886</v>
       </c>
-      <c r="R20" s="23" t="s">
+      <c r="R20" t="s">
         <v>772</v>
       </c>
     </row>
@@ -23587,37 +23440,37 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" t="s">
         <v>786</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" t="s">
         <v>415</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" t="s">
         <v>794</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" t="s">
         <v>419</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="22">
         <v>4020222</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" t="s">
         <v>647</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" t="s">
         <v>788</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="N21" t="s">
         <v>695</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="O21" t="s">
         <v>864</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="Q21" t="s">
         <v>886</v>
       </c>
-      <c r="R21" s="23" t="s">
+      <c r="R21" t="s">
         <v>771</v>
       </c>
     </row>
@@ -23640,22 +23493,22 @@
       <c r="F22" s="22">
         <v>4020223</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" t="s">
         <v>647</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" t="s">
         <v>679</v>
       </c>
-      <c r="N22" s="23" t="s">
+      <c r="N22" t="s">
         <v>695</v>
       </c>
-      <c r="O22" s="23" t="s">
+      <c r="O22" t="s">
         <v>699</v>
       </c>
-      <c r="Q22" s="23" t="s">
+      <c r="Q22" t="s">
         <v>886</v>
       </c>
-      <c r="R22" s="23" t="s">
+      <c r="R22" t="s">
         <v>770</v>
       </c>
     </row>
@@ -23678,22 +23531,22 @@
       <c r="F23" s="22">
         <v>4020224</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="K23" t="s">
         <v>647</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" t="s">
         <v>695</v>
       </c>
-      <c r="N23" s="23" t="s">
+      <c r="N23" t="s">
         <v>695</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="O23" t="s">
         <v>865</v>
       </c>
-      <c r="Q23" s="23" t="s">
+      <c r="Q23" t="s">
         <v>859</v>
       </c>
-      <c r="R23" s="23" t="s">
+      <c r="R23" t="s">
         <v>682</v>
       </c>
     </row>
@@ -23701,37 +23554,37 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" t="s">
         <v>786</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" t="s">
         <v>415</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" t="s">
         <v>795</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" t="s">
         <v>1027</v>
       </c>
       <c r="F24" s="22">
         <v>4020231</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" t="s">
         <v>647</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" t="s">
         <v>710</v>
       </c>
-      <c r="N24" s="23" t="s">
+      <c r="N24" t="s">
         <v>695</v>
       </c>
-      <c r="O24" s="23" t="s">
+      <c r="O24" t="s">
         <v>866</v>
       </c>
-      <c r="Q24" s="23" t="s">
+      <c r="Q24" t="s">
         <v>859</v>
       </c>
-      <c r="R24" s="23" t="s">
+      <c r="R24" t="s">
         <v>681</v>
       </c>
     </row>
@@ -23754,22 +23607,22 @@
       <c r="F25" s="22">
         <v>4020232</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="K25" t="s">
         <v>647</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" t="s">
         <v>723</v>
       </c>
-      <c r="N25" s="23" t="s">
+      <c r="N25" t="s">
         <v>695</v>
       </c>
-      <c r="O25" s="23" t="s">
+      <c r="O25" t="s">
         <v>706</v>
       </c>
-      <c r="Q25" s="23" t="s">
+      <c r="Q25" t="s">
         <v>859</v>
       </c>
-      <c r="R25" s="23" t="s">
+      <c r="R25" t="s">
         <v>680</v>
       </c>
     </row>
@@ -23777,37 +23630,37 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" t="s">
         <v>786</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" t="s">
         <v>415</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" t="s">
         <v>795</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" t="s">
         <v>423</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="22">
         <v>4020233</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K26" t="s">
         <v>647</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" t="s">
         <v>739</v>
       </c>
-      <c r="N26" s="23" t="s">
+      <c r="N26" t="s">
         <v>710</v>
       </c>
-      <c r="O26" s="23" t="s">
+      <c r="O26" t="s">
         <v>867</v>
       </c>
-      <c r="Q26" s="23" t="s">
+      <c r="Q26" t="s">
         <v>860</v>
       </c>
-      <c r="R26" s="23" t="s">
+      <c r="R26" t="s">
         <v>683</v>
       </c>
     </row>
@@ -23815,37 +23668,37 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" t="s">
         <v>786</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" t="s">
         <v>415</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" t="s">
         <v>795</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" t="s">
         <v>424</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="22">
         <v>4020234</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" t="s">
         <v>647</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" t="s">
         <v>754</v>
       </c>
-      <c r="N27" s="23" t="s">
+      <c r="N27" t="s">
         <v>710</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" t="s">
         <v>868</v>
       </c>
-      <c r="Q27" s="23" t="s">
+      <c r="Q27" t="s">
         <v>860</v>
       </c>
-      <c r="R27" s="23" t="s">
+      <c r="R27" t="s">
         <v>684</v>
       </c>
     </row>
@@ -23853,37 +23706,37 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" t="s">
         <v>786</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" t="s">
         <v>415</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" t="s">
         <v>796</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" t="s">
         <v>425</v>
       </c>
       <c r="F28" s="22">
         <v>4020241</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" t="s">
         <v>647</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" t="s">
         <v>769</v>
       </c>
-      <c r="N28" s="23" t="s">
+      <c r="N28" t="s">
         <v>710</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="O28" t="s">
         <v>869</v>
       </c>
-      <c r="Q28" s="23" t="s">
+      <c r="Q28" t="s">
         <v>860</v>
       </c>
-      <c r="R28" s="23" t="s">
+      <c r="R28" t="s">
         <v>685</v>
       </c>
     </row>
@@ -23906,22 +23759,22 @@
       <c r="F29" s="22">
         <v>4020242</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" t="s">
         <v>787</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" t="s">
         <v>784</v>
       </c>
-      <c r="N29" s="23" t="s">
+      <c r="N29" t="s">
         <v>710</v>
       </c>
-      <c r="O29" s="23" t="s">
+      <c r="O29" t="s">
         <v>870</v>
       </c>
-      <c r="Q29" s="23" t="s">
+      <c r="Q29" t="s">
         <v>861</v>
       </c>
-      <c r="R29" s="23" t="s">
+      <c r="R29" t="s">
         <v>688</v>
       </c>
     </row>
@@ -23929,37 +23782,37 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" t="s">
         <v>786</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" t="s">
         <v>415</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" t="s">
         <v>796</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" t="s">
         <v>427</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="22">
         <v>4020243</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" t="s">
         <v>787</v>
       </c>
-      <c r="L30" s="23" t="s">
+      <c r="L30" t="s">
         <v>580</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" t="s">
         <v>710</v>
       </c>
-      <c r="O30" s="23" t="s">
+      <c r="O30" t="s">
         <v>871</v>
       </c>
-      <c r="Q30" s="23" t="s">
+      <c r="Q30" t="s">
         <v>861</v>
       </c>
-      <c r="R30" s="23" t="s">
+      <c r="R30" t="s">
         <v>686</v>
       </c>
     </row>
@@ -23967,37 +23820,37 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" t="s">
         <v>786</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" t="s">
         <v>415</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" t="s">
         <v>796</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" t="s">
         <v>428</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="22">
         <v>4020244</v>
       </c>
-      <c r="K31" s="23" t="s">
+      <c r="K31" t="s">
         <v>787</v>
       </c>
-      <c r="L31" s="23" t="s">
+      <c r="L31" t="s">
         <v>594</v>
       </c>
-      <c r="N31" s="23" t="s">
+      <c r="N31" t="s">
         <v>723</v>
       </c>
-      <c r="O31" s="23" t="s">
+      <c r="O31" t="s">
         <v>872</v>
       </c>
-      <c r="Q31" s="23" t="s">
+      <c r="Q31" t="s">
         <v>861</v>
       </c>
-      <c r="R31" s="23" t="s">
+      <c r="R31" t="s">
         <v>687</v>
       </c>
     </row>
@@ -24005,25 +23858,25 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" t="s">
         <v>786</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" t="s">
         <v>429</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" t="s">
         <v>797</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" t="s">
         <v>430</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="22">
         <v>4020411</v>
       </c>
-      <c r="N32" s="23" t="s">
+      <c r="N32" t="s">
         <v>723</v>
       </c>
-      <c r="O32" s="23" t="s">
+      <c r="O32" t="s">
         <v>873</v>
       </c>
       <c r="Q32" s="17" t="s">
@@ -24052,10 +23905,10 @@
       <c r="F33" s="22">
         <v>4020412</v>
       </c>
-      <c r="N33" s="23" t="s">
+      <c r="N33" t="s">
         <v>723</v>
       </c>
-      <c r="O33" s="23" t="s">
+      <c r="O33" t="s">
         <v>874</v>
       </c>
       <c r="Q33" s="17" t="s">
@@ -24069,25 +23922,25 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" t="s">
         <v>786</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" t="s">
         <v>429</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" t="s">
         <v>797</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" t="s">
         <v>432</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="22">
         <v>4020413</v>
       </c>
-      <c r="N34" s="23" t="s">
+      <c r="N34" t="s">
         <v>723</v>
       </c>
-      <c r="O34" s="23" t="s">
+      <c r="O34" t="s">
         <v>875</v>
       </c>
       <c r="Q34" s="17" t="s">
@@ -24101,31 +23954,31 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" t="s">
         <v>786</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" t="s">
         <v>429</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" t="s">
         <v>798</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" t="s">
         <v>433</v>
       </c>
       <c r="F35" s="22">
         <v>4020421</v>
       </c>
-      <c r="N35" s="23" t="s">
+      <c r="N35" t="s">
         <v>723</v>
       </c>
-      <c r="O35" s="23" t="s">
+      <c r="O35" t="s">
         <v>876</v>
       </c>
-      <c r="Q35" s="23" t="s">
+      <c r="Q35" t="s">
         <v>457</v>
       </c>
-      <c r="R35" s="23" t="s">
+      <c r="R35" t="s">
         <v>458</v>
       </c>
     </row>
@@ -24133,31 +23986,31 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" t="s">
         <v>786</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" t="s">
         <v>429</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" t="s">
         <v>798</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" t="s">
         <v>434</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F36" s="22">
         <v>4020422</v>
       </c>
-      <c r="N36" s="24" t="s">
+      <c r="N36" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="O36" s="24" t="s">
+      <c r="O36" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="Q36" s="23" t="s">
+      <c r="Q36" t="s">
         <v>699</v>
       </c>
-      <c r="R36" s="23" t="s">
+      <c r="R36" t="s">
         <v>699</v>
       </c>
     </row>
@@ -24180,16 +24033,16 @@
       <c r="F37" s="22">
         <v>4020423</v>
       </c>
-      <c r="N37" s="24" t="s">
+      <c r="N37" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="O37" s="24" t="s">
+      <c r="O37" s="17" t="s">
         <v>612</v>
       </c>
-      <c r="Q37" s="23" t="s">
+      <c r="Q37" t="s">
         <v>699</v>
       </c>
-      <c r="R37" s="23" t="s">
+      <c r="R37" t="s">
         <v>700</v>
       </c>
     </row>
@@ -24197,31 +24050,31 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" t="s">
         <v>786</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" t="s">
         <v>429</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" t="s">
         <v>799</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" t="s">
         <v>892</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="22">
         <v>4020431</v>
       </c>
-      <c r="N38" s="24" t="s">
+      <c r="N38" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="O38" s="24" t="s">
+      <c r="O38" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="Q38" s="23" t="s">
+      <c r="Q38" t="s">
         <v>699</v>
       </c>
-      <c r="R38" s="23" t="s">
+      <c r="R38" t="s">
         <v>1016</v>
       </c>
     </row>
@@ -24229,31 +24082,31 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" t="s">
         <v>786</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" t="s">
         <v>429</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" t="s">
         <v>799</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" t="s">
         <v>436</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F39" s="22">
         <v>4020432</v>
       </c>
-      <c r="N39" s="24" t="s">
+      <c r="N39" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="O39" s="24" t="s">
+      <c r="O39" s="17" t="s">
         <v>614</v>
       </c>
-      <c r="Q39" s="23" t="s">
+      <c r="Q39" t="s">
         <v>868</v>
       </c>
-      <c r="R39" s="23" t="s">
+      <c r="R39" t="s">
         <v>712</v>
       </c>
     </row>
@@ -24282,10 +24135,10 @@
       <c r="O40" t="s">
         <v>789</v>
       </c>
-      <c r="Q40" s="23" t="s">
+      <c r="Q40" t="s">
         <v>868</v>
       </c>
-      <c r="R40" s="23" t="s">
+      <c r="R40" t="s">
         <v>713</v>
       </c>
     </row>
@@ -24293,19 +24146,19 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" t="s">
         <v>786</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" t="s">
         <v>429</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" t="s">
         <v>440</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" t="s">
         <v>438</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F41" s="22">
         <v>4020441</v>
       </c>
       <c r="N41" t="s">
@@ -24314,10 +24167,10 @@
       <c r="O41" t="s">
         <v>790</v>
       </c>
-      <c r="Q41" s="23" t="s">
+      <c r="Q41" t="s">
         <v>868</v>
       </c>
-      <c r="R41" s="23" t="s">
+      <c r="R41" t="s">
         <v>1019</v>
       </c>
     </row>
@@ -24346,10 +24199,10 @@
       <c r="O42" t="s">
         <v>791</v>
       </c>
-      <c r="Q42" s="23" t="s">
+      <c r="Q42" t="s">
         <v>887</v>
       </c>
-      <c r="R42" s="23" t="s">
+      <c r="R42" t="s">
         <v>1021</v>
       </c>
     </row>
@@ -24357,19 +24210,19 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" t="s">
         <v>786</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" t="s">
         <v>429</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" t="s">
         <v>440</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" t="s">
         <v>440</v>
       </c>
-      <c r="F43" s="27">
+      <c r="F43" s="22">
         <v>4020443</v>
       </c>
       <c r="N43" t="s">
@@ -24378,10 +24231,10 @@
       <c r="O43" t="s">
         <v>792</v>
       </c>
-      <c r="Q43" s="23" t="s">
+      <c r="Q43" t="s">
         <v>887</v>
       </c>
-      <c r="R43" s="23" t="s">
+      <c r="R43" t="s">
         <v>774</v>
       </c>
     </row>
@@ -24410,10 +24263,10 @@
       <c r="O44" t="s">
         <v>793</v>
       </c>
-      <c r="Q44" s="23" t="s">
+      <c r="Q44" t="s">
         <v>887</v>
       </c>
-      <c r="R44" s="23" t="s">
+      <c r="R44" t="s">
         <v>773</v>
       </c>
     </row>
@@ -24421,19 +24274,19 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" t="s">
         <v>786</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" t="s">
         <v>429</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" t="s">
         <v>800</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" t="s">
         <v>442</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F45" s="22">
         <v>4020452</v>
       </c>
       <c r="N45" t="s">
@@ -24453,19 +24306,19 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" t="s">
         <v>786</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" t="s">
         <v>429</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" t="s">
         <v>800</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" t="s">
         <v>893</v>
       </c>
-      <c r="F46" s="27">
+      <c r="F46" s="22">
         <v>4020453</v>
       </c>
       <c r="N46" t="s">
@@ -24474,10 +24327,10 @@
       <c r="O46" t="s">
         <v>795</v>
       </c>
-      <c r="Q46" s="23" t="s">
+      <c r="Q46" t="s">
         <v>822</v>
       </c>
-      <c r="R46" s="23" t="s">
+      <c r="R46" t="s">
         <v>520</v>
       </c>
     </row>
@@ -24485,19 +24338,19 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" t="s">
         <v>786</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" t="s">
         <v>443</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" t="s">
         <v>801</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" t="s">
         <v>1035</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F47" s="22">
         <v>4020511</v>
       </c>
       <c r="N47" t="s">
@@ -24506,10 +24359,10 @@
       <c r="O47" t="s">
         <v>796</v>
       </c>
-      <c r="Q47" s="23" t="s">
+      <c r="Q47" t="s">
         <v>845</v>
       </c>
-      <c r="R47" s="23" t="s">
+      <c r="R47" t="s">
         <v>597</v>
       </c>
     </row>
@@ -24517,31 +24370,31 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" t="s">
         <v>786</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" t="s">
         <v>443</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" t="s">
         <v>801</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" t="s">
         <v>1036</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F48" s="22">
         <v>4020512</v>
       </c>
-      <c r="N48" s="24" t="s">
+      <c r="N48" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="O48" s="24" t="s">
+      <c r="O48" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="Q48" s="23" t="s">
+      <c r="Q48" t="s">
         <v>845</v>
       </c>
-      <c r="R48" s="23" t="s">
+      <c r="R48" t="s">
         <v>596</v>
       </c>
     </row>
@@ -24564,16 +24417,16 @@
       <c r="F49" s="22">
         <v>4020513</v>
       </c>
-      <c r="N49" s="24" t="s">
+      <c r="N49" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="O49" s="24" t="s">
+      <c r="O49" s="17" t="s">
         <v>617</v>
       </c>
-      <c r="Q49" s="23" t="s">
+      <c r="Q49" t="s">
         <v>845</v>
       </c>
-      <c r="R49" s="23" t="s">
+      <c r="R49" t="s">
         <v>595</v>
       </c>
     </row>
@@ -24596,16 +24449,16 @@
       <c r="F50" s="22">
         <v>4020521</v>
       </c>
-      <c r="N50" s="24" t="s">
+      <c r="N50" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="O50" s="24" t="s">
+      <c r="O50" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="Q50" s="25" t="s">
+      <c r="Q50" s="23" t="s">
         <v>840</v>
       </c>
-      <c r="R50" s="26" t="s">
+      <c r="R50" s="24" t="s">
         <v>582</v>
       </c>
     </row>
@@ -24628,16 +24481,16 @@
       <c r="F51" s="22">
         <v>4020522</v>
       </c>
-      <c r="N51" s="24" t="s">
+      <c r="N51" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="O51" s="24" t="s">
+      <c r="O51" s="17" t="s">
         <v>619</v>
       </c>
-      <c r="Q51" s="25" t="s">
+      <c r="Q51" s="23" t="s">
         <v>840</v>
       </c>
-      <c r="R51" s="26" t="s">
+      <c r="R51" s="24" t="s">
         <v>581</v>
       </c>
     </row>
@@ -24645,31 +24498,31 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" t="s">
         <v>786</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" t="s">
         <v>443</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" t="s">
         <v>802</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" t="s">
         <v>447</v>
       </c>
       <c r="F52" s="22">
         <v>4020523</v>
       </c>
-      <c r="N52" s="24" t="s">
+      <c r="N52" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="O52" s="24" t="s">
+      <c r="O52" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="Q52" s="25" t="s">
+      <c r="Q52" s="23" t="s">
         <v>840</v>
       </c>
-      <c r="R52" s="23" t="s">
+      <c r="R52" t="s">
         <v>907</v>
       </c>
     </row>
@@ -24692,10 +24545,10 @@
       <c r="F53" s="22">
         <v>4020531</v>
       </c>
-      <c r="N53" s="24" t="s">
+      <c r="N53" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="O53" s="24" t="s">
+      <c r="O53" s="17" t="s">
         <v>622</v>
       </c>
       <c r="Q53" t="s">
@@ -24709,31 +24562,31 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" t="s">
         <v>786</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" t="s">
         <v>443</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" t="s">
         <v>803</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" t="s">
         <v>894</v>
       </c>
       <c r="F54" s="22">
         <v>4020532</v>
       </c>
-      <c r="N54" s="24" t="s">
+      <c r="N54" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="O54" s="24" t="s">
+      <c r="O54" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="Q54" s="23" t="s">
+      <c r="Q54" t="s">
         <v>797</v>
       </c>
-      <c r="R54" s="23" t="s">
+      <c r="R54" t="s">
         <v>430</v>
       </c>
     </row>
@@ -24741,31 +24594,31 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" t="s">
         <v>786</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" t="s">
         <v>443</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" t="s">
         <v>803</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" t="s">
         <v>449</v>
       </c>
-      <c r="F55" s="27">
+      <c r="F55" s="22">
         <v>4020533</v>
       </c>
-      <c r="N55" s="24" t="s">
+      <c r="N55" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="O55" s="24" t="s">
+      <c r="O55" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="Q55" s="23" t="s">
+      <c r="Q55" t="s">
         <v>797</v>
       </c>
-      <c r="R55" s="23" t="s">
+      <c r="R55" t="s">
         <v>432</v>
       </c>
     </row>
@@ -24773,31 +24626,31 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" t="s">
         <v>786</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" t="s">
         <v>443</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" t="s">
         <v>804</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" t="s">
         <v>450</v>
       </c>
-      <c r="F56" s="27">
+      <c r="F56" s="22">
         <v>4020541</v>
       </c>
-      <c r="N56" s="24" t="s">
+      <c r="N56" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="O56" s="24" t="s">
+      <c r="O56" s="17" t="s">
         <v>625</v>
       </c>
-      <c r="Q56" s="24" t="s">
+      <c r="Q56" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="R56" s="23" t="s">
+      <c r="R56" t="s">
         <v>942</v>
       </c>
     </row>
@@ -24820,16 +24673,16 @@
       <c r="F57" s="22">
         <v>4020542</v>
       </c>
-      <c r="N57" s="24" t="s">
+      <c r="N57" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="O57" s="24" t="s">
+      <c r="O57" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="Q57" s="24" t="s">
+      <c r="Q57" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="R57" s="23" t="s">
+      <c r="R57" t="s">
         <v>940</v>
       </c>
     </row>
@@ -24837,31 +24690,31 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" t="s">
         <v>786</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" t="s">
         <v>443</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" t="s">
         <v>804</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" t="s">
         <v>452</v>
       </c>
-      <c r="F58" s="27">
+      <c r="F58" s="22">
         <v>4020543</v>
       </c>
-      <c r="N58" s="24" t="s">
+      <c r="N58" s="17" t="s">
         <v>626</v>
       </c>
-      <c r="O58" s="24" t="s">
+      <c r="O58" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="Q58" s="24" t="s">
+      <c r="Q58" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="R58" s="23" t="s">
+      <c r="R58" t="s">
         <v>939</v>
       </c>
     </row>
@@ -24869,31 +24722,31 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" t="s">
         <v>786</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" t="s">
         <v>443</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" t="s">
         <v>805</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" t="s">
         <v>453</v>
       </c>
-      <c r="F59" s="27">
+      <c r="F59" s="22">
         <v>4020551</v>
       </c>
-      <c r="N59" s="24" t="s">
+      <c r="N59" s="17" t="s">
         <v>626</v>
       </c>
-      <c r="O59" s="24" t="s">
+      <c r="O59" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="Q59" s="24" t="s">
+      <c r="Q59" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="R59" s="23" t="s">
+      <c r="R59" t="s">
         <v>941</v>
       </c>
     </row>
@@ -24901,25 +24754,25 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" t="s">
         <v>786</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" t="s">
         <v>443</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" t="s">
         <v>805</v>
       </c>
-      <c r="E60" s="23" t="s">
+      <c r="E60" t="s">
         <v>454</v>
       </c>
-      <c r="F60" s="27">
+      <c r="F60" s="22">
         <v>4020552</v>
       </c>
-      <c r="N60" s="24" t="s">
+      <c r="N60" s="17" t="s">
         <v>626</v>
       </c>
-      <c r="O60" s="24" t="s">
+      <c r="O60" s="17" t="s">
         <v>630</v>
       </c>
       <c r="Q60" t="s">
@@ -24948,10 +24801,10 @@
       <c r="F61" s="22">
         <v>4020553</v>
       </c>
-      <c r="N61" s="23" t="s">
+      <c r="N61" t="s">
         <v>580</v>
       </c>
-      <c r="O61" s="25" t="s">
+      <c r="O61" s="23" t="s">
         <v>840</v>
       </c>
       <c r="Q61" t="s">
@@ -24980,10 +24833,10 @@
       <c r="F62" s="22">
         <v>4020611</v>
       </c>
-      <c r="N62" s="23" t="s">
+      <c r="N62" t="s">
         <v>580</v>
       </c>
-      <c r="O62" s="25" t="s">
+      <c r="O62" s="23" t="s">
         <v>841</v>
       </c>
       <c r="Q62" t="s">
@@ -25012,16 +24865,16 @@
       <c r="F63" s="22">
         <v>4020612</v>
       </c>
-      <c r="N63" s="23" t="s">
+      <c r="N63" t="s">
         <v>580</v>
       </c>
-      <c r="O63" s="25" t="s">
+      <c r="O63" s="23" t="s">
         <v>842</v>
       </c>
-      <c r="Q63" s="23" t="s">
+      <c r="Q63" t="s">
         <v>832</v>
       </c>
-      <c r="R63" s="23" t="s">
+      <c r="R63" t="s">
         <v>550</v>
       </c>
     </row>
@@ -25044,16 +24897,16 @@
       <c r="F64" s="22">
         <v>4020613</v>
       </c>
-      <c r="N64" s="23" t="s">
+      <c r="N64" t="s">
         <v>580</v>
       </c>
-      <c r="O64" s="25" t="s">
+      <c r="O64" s="23" t="s">
         <v>843</v>
       </c>
-      <c r="Q64" s="23" t="s">
+      <c r="Q64" t="s">
         <v>832</v>
       </c>
-      <c r="R64" s="23" t="s">
+      <c r="R64" t="s">
         <v>554</v>
       </c>
     </row>
@@ -25061,31 +24914,31 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" t="s">
         <v>786</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" t="s">
         <v>456</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" t="s">
         <v>457</v>
       </c>
-      <c r="E65" s="23" t="s">
+      <c r="E65" t="s">
         <v>458</v>
       </c>
-      <c r="F65" s="27">
+      <c r="F65" s="22">
         <v>4020614</v>
       </c>
-      <c r="N65" s="23" t="s">
+      <c r="N65" t="s">
         <v>580</v>
       </c>
-      <c r="O65" s="25" t="s">
+      <c r="O65" s="23" t="s">
         <v>844</v>
       </c>
-      <c r="Q65" s="25" t="s">
+      <c r="Q65" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="R65" s="26" t="s">
+      <c r="R65" s="24" t="s">
         <v>585</v>
       </c>
     </row>
@@ -25114,10 +24967,10 @@
       <c r="O66" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="Q66" s="25" t="s">
+      <c r="Q66" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="R66" s="26" t="s">
+      <c r="R66" s="24" t="s">
         <v>584</v>
       </c>
     </row>
@@ -25146,10 +24999,10 @@
       <c r="O67" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="Q67" s="25" t="s">
+      <c r="Q67" s="23" t="s">
         <v>841</v>
       </c>
-      <c r="R67" s="26" t="s">
+      <c r="R67" s="24" t="s">
         <v>583</v>
       </c>
     </row>
@@ -25157,19 +25010,19 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" t="s">
         <v>786</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" t="s">
         <v>456</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="D68" t="s">
         <v>806</v>
       </c>
-      <c r="E68" s="23" t="s">
+      <c r="E68" t="s">
         <v>460</v>
       </c>
-      <c r="F68" s="27">
+      <c r="F68" s="22">
         <v>4020623</v>
       </c>
       <c r="N68" t="s">
@@ -25178,10 +25031,10 @@
       <c r="O68" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="Q68" s="23" t="s">
+      <c r="Q68" t="s">
         <v>846</v>
       </c>
-      <c r="R68" s="23" t="s">
+      <c r="R68" t="s">
         <v>599</v>
       </c>
     </row>
@@ -25189,19 +25042,19 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" t="s">
         <v>786</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C69" t="s">
         <v>456</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="D69" t="s">
         <v>806</v>
       </c>
-      <c r="E69" s="23" t="s">
+      <c r="E69" t="s">
         <v>461</v>
       </c>
-      <c r="F69" s="27">
+      <c r="F69" s="22">
         <v>4020624</v>
       </c>
       <c r="N69" t="s">
@@ -25210,10 +25063,10 @@
       <c r="O69" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="Q69" s="23" t="s">
+      <c r="Q69" t="s">
         <v>846</v>
       </c>
-      <c r="R69" s="23" t="s">
+      <c r="R69" t="s">
         <v>598</v>
       </c>
     </row>
@@ -25221,19 +25074,19 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B70" t="s">
         <v>786</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" t="s">
         <v>456</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" t="s">
         <v>463</v>
       </c>
-      <c r="E70" s="23" t="s">
+      <c r="E70" t="s">
         <v>1029</v>
       </c>
-      <c r="F70" s="28">
+      <c r="F70" s="22">
         <v>4020631</v>
       </c>
       <c r="N70" t="s">
@@ -25242,10 +25095,10 @@
       <c r="O70" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="Q70" s="23" t="s">
+      <c r="Q70" t="s">
         <v>846</v>
       </c>
-      <c r="R70" s="23" t="s">
+      <c r="R70" t="s">
         <v>600</v>
       </c>
     </row>
@@ -25253,19 +25106,19 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" t="s">
         <v>786</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" t="s">
         <v>456</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D71" t="s">
         <v>463</v>
       </c>
-      <c r="E71" s="23" t="s">
+      <c r="E71" t="s">
         <v>462</v>
       </c>
-      <c r="F71" s="27">
+      <c r="F71" s="22">
         <v>4020632</v>
       </c>
       <c r="N71" t="s">
@@ -25285,19 +25138,19 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" t="s">
         <v>786</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" t="s">
         <v>456</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D72" t="s">
         <v>463</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="E72" t="s">
         <v>463</v>
       </c>
-      <c r="F72" s="27">
+      <c r="F72" s="22">
         <v>4020633</v>
       </c>
       <c r="N72" t="s">
@@ -25332,10 +25185,10 @@
       <c r="F73" s="22">
         <v>4020634</v>
       </c>
-      <c r="N73" s="24" t="s">
+      <c r="N73" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="O73" s="24" t="s">
+      <c r="O73" s="17" t="s">
         <v>631</v>
       </c>
       <c r="Q73" t="s">
@@ -25349,31 +25202,31 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" t="s">
         <v>786</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" t="s">
         <v>456</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" t="s">
         <v>807</v>
       </c>
-      <c r="E74" s="23" t="s">
+      <c r="E74" t="s">
         <v>897</v>
       </c>
-      <c r="F74" s="27">
+      <c r="F74" s="22">
         <v>4020641</v>
       </c>
-      <c r="N74" s="24" t="s">
+      <c r="N74" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="O74" s="24" t="s">
+      <c r="O74" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="Q74" s="23" t="s">
+      <c r="Q74" t="s">
         <v>817</v>
       </c>
-      <c r="R74" s="23" t="s">
+      <c r="R74" t="s">
         <v>506</v>
       </c>
     </row>
@@ -25396,16 +25249,16 @@
       <c r="F75" s="22">
         <v>4020642</v>
       </c>
-      <c r="N75" s="24" t="s">
+      <c r="N75" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="O75" s="24" t="s">
+      <c r="O75" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="Q75" s="23" t="s">
+      <c r="Q75" t="s">
         <v>817</v>
       </c>
-      <c r="R75" s="23" t="s">
+      <c r="R75" t="s">
         <v>505</v>
       </c>
     </row>
@@ -25428,16 +25281,16 @@
       <c r="F76" s="22">
         <v>4020643</v>
       </c>
-      <c r="N76" s="24" t="s">
+      <c r="N76" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="O76" s="24" t="s">
+      <c r="O76" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="Q76" s="25" t="s">
+      <c r="Q76" s="23" t="s">
         <v>835</v>
       </c>
-      <c r="R76" s="26" t="s">
+      <c r="R76" s="24" t="s">
         <v>566</v>
       </c>
     </row>
@@ -25445,31 +25298,31 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" t="s">
         <v>786</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" t="s">
         <v>456</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="D77" t="s">
         <v>807</v>
       </c>
-      <c r="E77" s="23" t="s">
+      <c r="E77" t="s">
         <v>898</v>
       </c>
-      <c r="F77" s="27">
+      <c r="F77" s="22">
         <v>4020644</v>
       </c>
-      <c r="N77" s="24" t="s">
+      <c r="N77" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="O77" s="24" t="s">
+      <c r="O77" s="17" t="s">
         <v>637</v>
       </c>
-      <c r="Q77" s="25" t="s">
+      <c r="Q77" s="23" t="s">
         <v>835</v>
       </c>
-      <c r="R77" s="26" t="s">
+      <c r="R77" s="24" t="s">
         <v>906</v>
       </c>
     </row>
@@ -25477,31 +25330,31 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" t="s">
         <v>786</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" t="s">
         <v>465</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="D78" t="s">
         <v>808</v>
       </c>
-      <c r="E78" s="23" t="s">
+      <c r="E78" t="s">
         <v>466</v>
       </c>
-      <c r="F78" s="27">
+      <c r="F78" s="22">
         <v>4020711</v>
       </c>
-      <c r="N78" s="24" t="s">
+      <c r="N78" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="O78" s="24" t="s">
+      <c r="O78" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="Q78" s="25" t="s">
+      <c r="Q78" s="23" t="s">
         <v>835</v>
       </c>
-      <c r="R78" s="26" t="s">
+      <c r="R78" s="24" t="s">
         <v>567</v>
       </c>
     </row>
@@ -25509,31 +25362,31 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" t="s">
         <v>786</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C79" t="s">
         <v>465</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" t="s">
         <v>808</v>
       </c>
-      <c r="E79" s="23" t="s">
+      <c r="E79" t="s">
         <v>467</v>
       </c>
-      <c r="F79" s="27">
+      <c r="F79" s="22">
         <v>4020712</v>
       </c>
-      <c r="N79" s="24" t="s">
+      <c r="N79" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="O79" s="24" t="s">
+      <c r="O79" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="Q79" s="23" t="s">
+      <c r="Q79" t="s">
         <v>869</v>
       </c>
-      <c r="R79" s="23" t="s">
+      <c r="R79" t="s">
         <v>714</v>
       </c>
     </row>
@@ -25541,19 +25394,19 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" t="s">
         <v>786</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C80" t="s">
         <v>465</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="D80" t="s">
         <v>809</v>
       </c>
-      <c r="E80" s="23" t="s">
+      <c r="E80" t="s">
         <v>468</v>
       </c>
-      <c r="F80" s="27">
+      <c r="F80" s="22">
         <v>4020721</v>
       </c>
       <c r="N80" t="s">
@@ -25562,10 +25415,10 @@
       <c r="O80" t="s">
         <v>817</v>
       </c>
-      <c r="Q80" s="23" t="s">
+      <c r="Q80" t="s">
         <v>869</v>
       </c>
-      <c r="R80" s="23" t="s">
+      <c r="R80" t="s">
         <v>715</v>
       </c>
     </row>
@@ -25573,19 +25426,19 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" t="s">
         <v>786</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C81" t="s">
         <v>465</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="D81" t="s">
         <v>809</v>
       </c>
-      <c r="E81" s="23" t="s">
+      <c r="E81" t="s">
         <v>469</v>
       </c>
-      <c r="F81" s="27">
+      <c r="F81" s="22">
         <v>4020722</v>
       </c>
       <c r="N81" t="s">
@@ -25594,10 +25447,10 @@
       <c r="O81" t="s">
         <v>818</v>
       </c>
-      <c r="Q81" s="23" t="s">
+      <c r="Q81" t="s">
         <v>869</v>
       </c>
-      <c r="R81" s="23" t="s">
+      <c r="R81" t="s">
         <v>716</v>
       </c>
     </row>
@@ -25605,19 +25458,19 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" t="s">
         <v>786</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" t="s">
         <v>465</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" t="s">
         <v>809</v>
       </c>
-      <c r="E82" s="23" t="s">
+      <c r="E82" t="s">
         <v>470</v>
       </c>
-      <c r="F82" s="27">
+      <c r="F82" s="22">
         <v>4020723</v>
       </c>
       <c r="N82" t="s">
@@ -25626,10 +25479,10 @@
       <c r="O82" t="s">
         <v>510</v>
       </c>
-      <c r="Q82" s="23" t="s">
+      <c r="Q82" t="s">
         <v>879</v>
       </c>
-      <c r="R82" s="23" t="s">
+      <c r="R82" t="s">
         <v>745</v>
       </c>
     </row>
@@ -25637,19 +25490,19 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B83" t="s">
         <v>786</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" t="s">
         <v>465</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D83" t="s">
         <v>810</v>
       </c>
-      <c r="E83" s="23" t="s">
+      <c r="E83" t="s">
         <v>471</v>
       </c>
-      <c r="F83" s="27">
+      <c r="F83" s="22">
         <v>4020731</v>
       </c>
       <c r="N83" t="s">
@@ -25658,10 +25511,10 @@
       <c r="O83" t="s">
         <v>819</v>
       </c>
-      <c r="Q83" s="23" t="s">
+      <c r="Q83" t="s">
         <v>879</v>
       </c>
-      <c r="R83" s="23" t="s">
+      <c r="R83" t="s">
         <v>746</v>
       </c>
     </row>
@@ -25690,10 +25543,10 @@
       <c r="O84" t="s">
         <v>820</v>
       </c>
-      <c r="Q84" s="23" t="s">
+      <c r="Q84" t="s">
         <v>880</v>
       </c>
-      <c r="R84" s="23" t="s">
+      <c r="R84" t="s">
         <v>748</v>
       </c>
     </row>
@@ -25701,16 +25554,16 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B85" t="s">
         <v>786</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C85" t="s">
         <v>465</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="D85" t="s">
         <v>810</v>
       </c>
-      <c r="E85" s="23" t="s">
+      <c r="E85" t="s">
         <v>473</v>
       </c>
       <c r="F85" s="22">
@@ -25722,10 +25575,10 @@
       <c r="O85" t="s">
         <v>821</v>
       </c>
-      <c r="Q85" s="23" t="s">
+      <c r="Q85" t="s">
         <v>880</v>
       </c>
-      <c r="R85" s="23" t="s">
+      <c r="R85" t="s">
         <v>747</v>
       </c>
     </row>
@@ -25754,10 +25607,10 @@
       <c r="O86" t="s">
         <v>797</v>
       </c>
-      <c r="Q86" s="23" t="s">
+      <c r="Q86" t="s">
         <v>880</v>
       </c>
-      <c r="R86" s="23" t="s">
+      <c r="R86" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -25765,19 +25618,19 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="B87" t="s">
         <v>786</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="C87" t="s">
         <v>465</v>
       </c>
-      <c r="D87" s="23" t="s">
+      <c r="D87" t="s">
         <v>811</v>
       </c>
-      <c r="E87" s="23" t="s">
+      <c r="E87" t="s">
         <v>475</v>
       </c>
-      <c r="F87" s="27">
+      <c r="F87" s="22">
         <v>4020742</v>
       </c>
       <c r="N87" t="s">
@@ -25786,10 +25639,10 @@
       <c r="O87" t="s">
         <v>798</v>
       </c>
-      <c r="Q87" s="23" t="s">
+      <c r="Q87" t="s">
         <v>814</v>
       </c>
-      <c r="R87" s="23" t="s">
+      <c r="R87" t="s">
         <v>900</v>
       </c>
     </row>
@@ -25818,10 +25671,10 @@
       <c r="O88" t="s">
         <v>799</v>
       </c>
-      <c r="Q88" s="23" t="s">
+      <c r="Q88" t="s">
         <v>814</v>
       </c>
-      <c r="R88" s="23" t="s">
+      <c r="R88" t="s">
         <v>482</v>
       </c>
     </row>
@@ -25829,19 +25682,19 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="23" t="s">
+      <c r="B89" t="s">
         <v>786</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="C89" t="s">
         <v>465</v>
       </c>
-      <c r="D89" s="23" t="s">
+      <c r="D89" t="s">
         <v>812</v>
       </c>
-      <c r="E89" s="23" t="s">
+      <c r="E89" t="s">
         <v>477</v>
       </c>
-      <c r="F89" s="27">
+      <c r="F89" s="22">
         <v>4020752</v>
       </c>
       <c r="N89" t="s">
@@ -25850,10 +25703,10 @@
       <c r="O89" t="s">
         <v>440</v>
       </c>
-      <c r="Q89" s="23" t="s">
+      <c r="Q89" t="s">
         <v>814</v>
       </c>
-      <c r="R89" s="23" t="s">
+      <c r="R89" t="s">
         <v>899</v>
       </c>
     </row>
@@ -25861,19 +25714,19 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="B90" t="s">
         <v>786</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C90" t="s">
         <v>465</v>
       </c>
-      <c r="D90" s="23" t="s">
+      <c r="D90" t="s">
         <v>813</v>
       </c>
-      <c r="E90" s="23" t="s">
+      <c r="E90" t="s">
         <v>478</v>
       </c>
-      <c r="F90" s="27">
+      <c r="F90" s="22">
         <v>4020761</v>
       </c>
       <c r="N90" t="s">
@@ -25882,10 +25735,10 @@
       <c r="O90" t="s">
         <v>800</v>
       </c>
-      <c r="Q90" s="24" t="s">
+      <c r="Q90" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="R90" s="23" t="s">
+      <c r="R90" t="s">
         <v>910</v>
       </c>
     </row>
@@ -25893,19 +25746,19 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="B91" t="s">
         <v>786</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C91" t="s">
         <v>465</v>
       </c>
-      <c r="D91" s="23" t="s">
+      <c r="D91" t="s">
         <v>813</v>
       </c>
-      <c r="E91" s="23" t="s">
+      <c r="E91" t="s">
         <v>479</v>
       </c>
-      <c r="F91" s="27">
+      <c r="F91" s="22">
         <v>4020762</v>
       </c>
       <c r="N91" t="s">
@@ -25914,10 +25767,10 @@
       <c r="O91" t="s">
         <v>801</v>
       </c>
-      <c r="Q91" s="24" t="s">
+      <c r="Q91" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="R91" s="23" t="s">
+      <c r="R91" t="s">
         <v>911</v>
       </c>
     </row>
@@ -25925,19 +25778,19 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" t="s">
         <v>786</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="C92" t="s">
         <v>465</v>
       </c>
-      <c r="D92" s="23" t="s">
+      <c r="D92" t="s">
         <v>813</v>
       </c>
-      <c r="E92" s="23" t="s">
+      <c r="E92" t="s">
         <v>480</v>
       </c>
-      <c r="F92" s="27">
+      <c r="F92" s="22">
         <v>4020763</v>
       </c>
       <c r="N92" t="s">
@@ -25946,10 +25799,10 @@
       <c r="O92" t="s">
         <v>802</v>
       </c>
-      <c r="Q92" s="24" t="s">
+      <c r="Q92" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="R92" s="23" t="s">
+      <c r="R92" t="s">
         <v>1034</v>
       </c>
     </row>
@@ -25957,19 +25810,19 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B93" t="s">
         <v>786</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" t="s">
         <v>481</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="D93" t="s">
         <v>814</v>
       </c>
-      <c r="E93" s="23" t="s">
+      <c r="E93" t="s">
         <v>899</v>
       </c>
-      <c r="F93" s="27">
+      <c r="F93" s="22">
         <v>4020811</v>
       </c>
       <c r="N93" t="s">
@@ -25978,10 +25831,10 @@
       <c r="O93" t="s">
         <v>803</v>
       </c>
-      <c r="Q93" s="24" t="s">
+      <c r="Q93" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="R93" s="23" t="s">
+      <c r="R93" t="s">
         <v>912</v>
       </c>
     </row>
@@ -25989,19 +25842,19 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="B94" t="s">
         <v>786</v>
       </c>
-      <c r="C94" s="23" t="s">
+      <c r="C94" t="s">
         <v>481</v>
       </c>
-      <c r="D94" s="23" t="s">
+      <c r="D94" t="s">
         <v>814</v>
       </c>
-      <c r="E94" s="23" t="s">
+      <c r="E94" t="s">
         <v>900</v>
       </c>
-      <c r="F94" s="27">
+      <c r="F94" s="22">
         <v>4020812</v>
       </c>
       <c r="N94" t="s">
@@ -26010,10 +25863,10 @@
       <c r="O94" t="s">
         <v>804</v>
       </c>
-      <c r="Q94" s="24" t="s">
+      <c r="Q94" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="R94" s="23" t="s">
+      <c r="R94" t="s">
         <v>927</v>
       </c>
     </row>
@@ -26021,19 +25874,19 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="23" t="s">
+      <c r="B95" t="s">
         <v>786</v>
       </c>
-      <c r="C95" s="23" t="s">
+      <c r="C95" t="s">
         <v>481</v>
       </c>
-      <c r="D95" s="23" t="s">
+      <c r="D95" t="s">
         <v>814</v>
       </c>
-      <c r="E95" s="23" t="s">
+      <c r="E95" t="s">
         <v>482</v>
       </c>
-      <c r="F95" s="27">
+      <c r="F95" s="22">
         <v>4020813</v>
       </c>
       <c r="N95" t="s">
@@ -26042,10 +25895,10 @@
       <c r="O95" t="s">
         <v>805</v>
       </c>
-      <c r="Q95" s="24" t="s">
+      <c r="Q95" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="R95" s="23" t="s">
+      <c r="R95" t="s">
         <v>415</v>
       </c>
     </row>
@@ -26074,10 +25927,10 @@
       <c r="O96" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="Q96" s="24" t="s">
+      <c r="Q96" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="R96" s="23" t="s">
+      <c r="R96" t="s">
         <v>926</v>
       </c>
     </row>
@@ -26085,19 +25938,19 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B97" t="s">
         <v>786</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="C97" t="s">
         <v>481</v>
       </c>
-      <c r="D97" s="23" t="s">
+      <c r="D97" t="s">
         <v>483</v>
       </c>
-      <c r="E97" s="23" t="s">
+      <c r="E97" t="s">
         <v>484</v>
       </c>
-      <c r="F97" s="27">
+      <c r="F97" s="22">
         <v>4020822</v>
       </c>
       <c r="N97" t="s">
@@ -26106,10 +25959,10 @@
       <c r="O97" t="s">
         <v>806</v>
       </c>
-      <c r="Q97" s="24" t="s">
+      <c r="Q97" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="R97" s="23" t="s">
+      <c r="R97" t="s">
         <v>492</v>
       </c>
     </row>
@@ -26117,19 +25970,19 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B98" t="s">
         <v>786</v>
       </c>
-      <c r="C98" s="23" t="s">
+      <c r="C98" t="s">
         <v>481</v>
       </c>
-      <c r="D98" s="23" t="s">
+      <c r="D98" t="s">
         <v>483</v>
       </c>
-      <c r="E98" s="23" t="s">
+      <c r="E98" t="s">
         <v>485</v>
       </c>
-      <c r="F98" s="27">
+      <c r="F98" s="22">
         <v>4020823</v>
       </c>
       <c r="N98" t="s">
@@ -26149,19 +26002,19 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="23" t="s">
+      <c r="B99" t="s">
         <v>786</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C99" t="s">
         <v>481</v>
       </c>
-      <c r="D99" s="23" t="s">
+      <c r="D99" t="s">
         <v>815</v>
       </c>
-      <c r="E99" s="23" t="s">
+      <c r="E99" t="s">
         <v>1033</v>
       </c>
-      <c r="F99" s="27">
+      <c r="F99" s="22">
         <v>4020831</v>
       </c>
       <c r="N99" t="s">
@@ -26170,10 +26023,10 @@
       <c r="O99" t="s">
         <v>807</v>
       </c>
-      <c r="Q99" s="23" t="s">
+      <c r="Q99" t="s">
         <v>824</v>
       </c>
-      <c r="R99" s="23" t="s">
+      <c r="R99" t="s">
         <v>524</v>
       </c>
     </row>
@@ -26181,16 +26034,16 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="B100" t="s">
         <v>786</v>
       </c>
-      <c r="C100" s="23" t="s">
+      <c r="C100" t="s">
         <v>481</v>
       </c>
-      <c r="D100" s="23" t="s">
+      <c r="D100" t="s">
         <v>815</v>
       </c>
-      <c r="E100" s="23" t="s">
+      <c r="E100" t="s">
         <v>487</v>
       </c>
       <c r="F100" s="22">
@@ -26266,10 +26119,10 @@
       <c r="O102" t="s">
         <v>834</v>
       </c>
-      <c r="Q102" s="23" t="s">
+      <c r="Q102" t="s">
         <v>825</v>
       </c>
-      <c r="R102" s="23" t="s">
+      <c r="R102" t="s">
         <v>527</v>
       </c>
     </row>
@@ -26277,19 +26130,19 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="23" t="s">
+      <c r="B103" t="s">
         <v>786</v>
       </c>
-      <c r="C103" s="23" t="s">
+      <c r="C103" t="s">
         <v>481</v>
       </c>
-      <c r="D103" s="23" t="s">
+      <c r="D103" t="s">
         <v>816</v>
       </c>
-      <c r="E103" s="23" t="s">
+      <c r="E103" t="s">
         <v>401</v>
       </c>
-      <c r="F103" s="27">
+      <c r="F103" s="22">
         <v>4020842</v>
       </c>
       <c r="N103" t="s">
@@ -26309,19 +26162,19 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="23" t="s">
+      <c r="B104" t="s">
         <v>786</v>
       </c>
-      <c r="C104" s="23" t="s">
+      <c r="C104" t="s">
         <v>481</v>
       </c>
-      <c r="D104" s="23" t="s">
+      <c r="D104" t="s">
         <v>816</v>
       </c>
-      <c r="E104" s="23" t="s">
+      <c r="E104" t="s">
         <v>490</v>
       </c>
-      <c r="F104" s="27">
+      <c r="F104" s="22">
         <v>4020843</v>
       </c>
       <c r="N104" t="s">
@@ -26341,19 +26194,19 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="B105" t="s">
         <v>786</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="C105" t="s">
         <v>481</v>
       </c>
-      <c r="D105" s="23" t="s">
+      <c r="D105" t="s">
         <v>491</v>
       </c>
-      <c r="E105" s="23" t="s">
+      <c r="E105" t="s">
         <v>491</v>
       </c>
-      <c r="F105" s="27">
+      <c r="F105" s="22">
         <v>4020851</v>
       </c>
       <c r="N105" t="s">
@@ -26373,19 +26226,19 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="23" t="s">
+      <c r="B106" t="s">
         <v>786</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C106" t="s">
         <v>481</v>
       </c>
-      <c r="D106" s="23" t="s">
+      <c r="D106" t="s">
         <v>491</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="E106" t="s">
         <v>1030</v>
       </c>
-      <c r="F106" s="27">
+      <c r="F106" s="22">
         <v>4020852</v>
       </c>
       <c r="N106" t="s">
@@ -26405,19 +26258,19 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B107" t="s">
         <v>786</v>
       </c>
-      <c r="C107" s="23" t="s">
+      <c r="C107" t="s">
         <v>481</v>
       </c>
-      <c r="D107" s="23" t="s">
+      <c r="D107" t="s">
         <v>491</v>
       </c>
-      <c r="E107" s="23" t="s">
+      <c r="E107" t="s">
         <v>493</v>
       </c>
-      <c r="F107" s="27">
+      <c r="F107" s="22">
         <v>4020853</v>
       </c>
       <c r="N107" t="s">
@@ -26426,10 +26279,10 @@
       <c r="O107" t="s">
         <v>831</v>
       </c>
-      <c r="Q107" s="24" t="s">
+      <c r="Q107" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="R107" s="23" t="s">
+      <c r="R107" t="s">
         <v>642</v>
       </c>
     </row>
@@ -26452,16 +26305,16 @@
       <c r="F108" s="22">
         <v>4020351</v>
       </c>
-      <c r="N108" s="24" t="s">
+      <c r="N108" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="O108" s="24" t="s">
+      <c r="O108" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="Q108" s="24" t="s">
+      <c r="Q108" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="R108" s="23" t="s">
+      <c r="R108" t="s">
         <v>996</v>
       </c>
     </row>
@@ -26484,16 +26337,16 @@
       <c r="F109" s="22">
         <v>4020352</v>
       </c>
-      <c r="N109" s="24" t="s">
+      <c r="N109" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="O109" s="24" t="s">
+      <c r="O109" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="Q109" s="24" t="s">
+      <c r="Q109" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="R109" s="23" t="s">
+      <c r="R109" t="s">
         <v>995</v>
       </c>
     </row>
@@ -26516,16 +26369,16 @@
       <c r="F110" s="22">
         <v>4020353</v>
       </c>
-      <c r="N110" s="24" t="s">
+      <c r="N110" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="O110" s="24" t="s">
+      <c r="O110" s="17" t="s">
         <v>644</v>
       </c>
-      <c r="Q110" s="24" t="s">
+      <c r="Q110" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="R110" s="23" t="s">
+      <c r="R110" t="s">
         <v>994</v>
       </c>
     </row>
@@ -26548,16 +26401,16 @@
       <c r="F111" s="22">
         <v>4020354</v>
       </c>
-      <c r="N111" s="24" t="s">
+      <c r="N111" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="O111" s="24" t="s">
+      <c r="O111" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="Q111" s="23" t="s">
+      <c r="Q111" t="s">
         <v>870</v>
       </c>
-      <c r="R111" s="23" t="s">
+      <c r="R111" t="s">
         <v>719</v>
       </c>
     </row>
@@ -26580,16 +26433,16 @@
       <c r="F112" s="22">
         <v>4020341</v>
       </c>
-      <c r="N112" s="24" t="s">
+      <c r="N112" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="O112" s="24" t="s">
+      <c r="O112" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="Q112" s="23" t="s">
+      <c r="Q112" t="s">
         <v>870</v>
       </c>
-      <c r="R112" s="23" t="s">
+      <c r="R112" t="s">
         <v>718</v>
       </c>
     </row>
@@ -26612,16 +26465,16 @@
       <c r="F113" s="22">
         <v>4020342</v>
       </c>
-      <c r="N113" s="24" t="s">
+      <c r="N113" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="O113" s="24" t="s">
+      <c r="O113" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="Q113" s="23" t="s">
+      <c r="Q113" t="s">
         <v>870</v>
       </c>
-      <c r="R113" s="23" t="s">
+      <c r="R113" t="s">
         <v>717</v>
       </c>
     </row>
@@ -26682,10 +26535,10 @@
       <c r="O115" t="s">
         <v>809</v>
       </c>
-      <c r="Q115" s="23" t="s">
+      <c r="Q115" t="s">
         <v>789</v>
       </c>
-      <c r="R115" s="23" t="s">
+      <c r="R115" t="s">
         <v>1025</v>
       </c>
     </row>
@@ -26714,10 +26567,10 @@
       <c r="O116" t="s">
         <v>810</v>
       </c>
-      <c r="Q116" s="23" t="s">
+      <c r="Q116" t="s">
         <v>789</v>
       </c>
-      <c r="R116" s="23" t="s">
+      <c r="R116" t="s">
         <v>402</v>
       </c>
     </row>
@@ -26746,10 +26599,10 @@
       <c r="O117" t="s">
         <v>811</v>
       </c>
-      <c r="Q117" s="23" t="s">
+      <c r="Q117" t="s">
         <v>790</v>
       </c>
-      <c r="R117" s="23" t="s">
+      <c r="R117" t="s">
         <v>403</v>
       </c>
     </row>
@@ -26757,19 +26610,19 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="B118" t="s">
         <v>786</v>
       </c>
-      <c r="C118" s="23" t="s">
+      <c r="C118" t="s">
         <v>494</v>
       </c>
-      <c r="D118" s="24" t="s">
+      <c r="D118" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="E118" s="23" t="s">
+      <c r="E118" t="s">
         <v>498</v>
       </c>
-      <c r="F118" s="27">
+      <c r="F118" s="22">
         <v>4020363</v>
       </c>
       <c r="N118" t="s">
@@ -26778,10 +26631,10 @@
       <c r="O118" t="s">
         <v>812</v>
       </c>
-      <c r="Q118" s="23" t="s">
+      <c r="Q118" t="s">
         <v>790</v>
       </c>
-      <c r="R118" s="23" t="s">
+      <c r="R118" t="s">
         <v>406</v>
       </c>
     </row>
@@ -26789,16 +26642,16 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="23" t="s">
+      <c r="B119" t="s">
         <v>786</v>
       </c>
-      <c r="C119" s="23" t="s">
+      <c r="C119" t="s">
         <v>494</v>
       </c>
-      <c r="D119" s="24" t="s">
+      <c r="D119" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="E119" s="23" t="s">
+      <c r="E119" t="s">
         <v>1031</v>
       </c>
       <c r="F119" s="22">
@@ -26810,10 +26663,10 @@
       <c r="O119" t="s">
         <v>813</v>
       </c>
-      <c r="Q119" s="23" t="s">
+      <c r="Q119" t="s">
         <v>790</v>
       </c>
-      <c r="R119" s="23" t="s">
+      <c r="R119" t="s">
         <v>405</v>
       </c>
     </row>
@@ -26821,19 +26674,19 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="23" t="s">
+      <c r="B120" t="s">
         <v>786</v>
       </c>
-      <c r="C120" s="23" t="s">
+      <c r="C120" t="s">
         <v>494</v>
       </c>
-      <c r="D120" s="24" t="s">
+      <c r="D120" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="E120" s="23" t="s">
+      <c r="E120" t="s">
         <v>500</v>
       </c>
-      <c r="F120" s="27">
+      <c r="F120" s="22">
         <v>4020331</v>
       </c>
       <c r="N120" t="s">
@@ -26842,10 +26695,10 @@
       <c r="O120" t="s">
         <v>822</v>
       </c>
-      <c r="Q120" s="23" t="s">
+      <c r="Q120" t="s">
         <v>790</v>
       </c>
-      <c r="R120" s="23" t="s">
+      <c r="R120" t="s">
         <v>404</v>
       </c>
     </row>
@@ -26906,10 +26759,10 @@
       <c r="O122" t="s">
         <v>824</v>
       </c>
-      <c r="Q122" s="23" t="s">
+      <c r="Q122" t="s">
         <v>791</v>
       </c>
-      <c r="R122" s="23" t="s">
+      <c r="R122" t="s">
         <v>410</v>
       </c>
     </row>
@@ -26917,19 +26770,19 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="23" t="s">
+      <c r="B123" t="s">
         <v>786</v>
       </c>
-      <c r="C123" s="23" t="s">
+      <c r="C123" t="s">
         <v>494</v>
       </c>
-      <c r="D123" s="24" t="s">
+      <c r="D123" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="E123" s="23" t="s">
-        <v>901</v>
-      </c>
-      <c r="F123" s="27">
+      <c r="E123" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F123" s="22">
         <v>4020334</v>
       </c>
       <c r="N123" t="s">
@@ -26938,10 +26791,10 @@
       <c r="O123" t="s">
         <v>825</v>
       </c>
-      <c r="Q123" s="23" t="s">
+      <c r="Q123" t="s">
         <v>791</v>
       </c>
-      <c r="R123" s="23" t="s">
+      <c r="R123" t="s">
         <v>408</v>
       </c>
     </row>
@@ -26949,16 +26802,16 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="23" t="s">
+      <c r="B124" t="s">
         <v>786</v>
       </c>
-      <c r="C124" s="23" t="s">
+      <c r="C124" t="s">
         <v>494</v>
       </c>
-      <c r="D124" s="24" t="s">
+      <c r="D124" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="E124" s="23" t="s">
+      <c r="E124" t="s">
         <v>1032</v>
       </c>
       <c r="F124" s="22">
@@ -26970,10 +26823,10 @@
       <c r="O124" t="s">
         <v>826</v>
       </c>
-      <c r="Q124" s="23" t="s">
+      <c r="Q124" t="s">
         <v>791</v>
       </c>
-      <c r="R124" s="23" t="s">
+      <c r="R124" t="s">
         <v>407</v>
       </c>
     </row>
@@ -27028,10 +26881,10 @@
       <c r="F126" s="22">
         <v>4020373</v>
       </c>
-      <c r="N126" s="23" t="s">
+      <c r="N126" t="s">
         <v>739</v>
       </c>
-      <c r="O126" s="23" t="s">
+      <c r="O126" t="s">
         <v>877</v>
       </c>
       <c r="Q126" t="s">
@@ -27060,16 +26913,16 @@
       <c r="F127" s="22">
         <v>4020374</v>
       </c>
-      <c r="N127" s="23" t="s">
+      <c r="N127" t="s">
         <v>739</v>
       </c>
-      <c r="O127" s="23" t="s">
+      <c r="O127" t="s">
         <v>878</v>
       </c>
-      <c r="Q127" s="23" t="s">
+      <c r="Q127" t="s">
         <v>792</v>
       </c>
-      <c r="R127" s="23" t="s">
+      <c r="R127" t="s">
         <v>411</v>
       </c>
     </row>
@@ -27092,16 +26945,16 @@
       <c r="F128" s="22">
         <v>4020311</v>
       </c>
-      <c r="N128" s="23" t="s">
+      <c r="N128" t="s">
         <v>739</v>
       </c>
-      <c r="O128" s="23" t="s">
+      <c r="O128" t="s">
         <v>879</v>
       </c>
-      <c r="Q128" s="23" t="s">
+      <c r="Q128" t="s">
         <v>792</v>
       </c>
-      <c r="R128" s="23" t="s">
+      <c r="R128" t="s">
         <v>412</v>
       </c>
     </row>
@@ -27124,16 +26977,16 @@
       <c r="F129" s="22">
         <v>4020312</v>
       </c>
-      <c r="N129" s="23" t="s">
+      <c r="N129" t="s">
         <v>739</v>
       </c>
-      <c r="O129" s="23" t="s">
+      <c r="O129" t="s">
         <v>880</v>
       </c>
-      <c r="Q129" s="23" t="s">
+      <c r="Q129" t="s">
         <v>865</v>
       </c>
-      <c r="R129" s="23" t="s">
+      <c r="R129" t="s">
         <v>702</v>
       </c>
     </row>
@@ -27156,16 +27009,16 @@
       <c r="F130" s="22">
         <v>4020313</v>
       </c>
-      <c r="N130" s="23" t="s">
+      <c r="N130" t="s">
         <v>739</v>
       </c>
-      <c r="O130" s="23" t="s">
+      <c r="O130" t="s">
         <v>756</v>
       </c>
-      <c r="Q130" s="23" t="s">
+      <c r="Q130" t="s">
         <v>865</v>
       </c>
-      <c r="R130" s="23" t="s">
+      <c r="R130" t="s">
         <v>703</v>
       </c>
     </row>
@@ -27188,16 +27041,16 @@
       <c r="F131" s="22">
         <v>4020314</v>
       </c>
-      <c r="N131" s="23" t="s">
+      <c r="N131" t="s">
         <v>739</v>
       </c>
-      <c r="O131" s="23" t="s">
+      <c r="O131" t="s">
         <v>881</v>
       </c>
-      <c r="Q131" s="23" t="s">
+      <c r="Q131" t="s">
         <v>865</v>
       </c>
-      <c r="R131" s="23" t="s">
+      <c r="R131" t="s">
         <v>701</v>
       </c>
     </row>
@@ -27220,16 +27073,16 @@
       <c r="F132" s="22">
         <v>4020321</v>
       </c>
-      <c r="N132" s="23" t="s">
+      <c r="N132" t="s">
         <v>594</v>
       </c>
-      <c r="O132" s="23" t="s">
+      <c r="O132" t="s">
         <v>845</v>
       </c>
-      <c r="Q132" s="23" t="s">
+      <c r="Q132" t="s">
         <v>882</v>
       </c>
-      <c r="R132" s="23" t="s">
+      <c r="R132" t="s">
         <v>757</v>
       </c>
     </row>
@@ -27252,16 +27105,16 @@
       <c r="F133" s="22">
         <v>4020322</v>
       </c>
-      <c r="N133" s="23" t="s">
+      <c r="N133" t="s">
         <v>594</v>
       </c>
-      <c r="O133" s="23" t="s">
+      <c r="O133" t="s">
         <v>846</v>
       </c>
-      <c r="Q133" s="23" t="s">
+      <c r="Q133" t="s">
         <v>882</v>
       </c>
-      <c r="R133" s="23" t="s">
+      <c r="R133" t="s">
         <v>756</v>
       </c>
     </row>
@@ -27284,16 +27137,16 @@
       <c r="F134" s="22">
         <v>4020323</v>
       </c>
-      <c r="N134" s="23" t="s">
+      <c r="N134" t="s">
         <v>594</v>
       </c>
-      <c r="O134" s="23" t="s">
+      <c r="O134" t="s">
         <v>847</v>
       </c>
-      <c r="Q134" s="23" t="s">
+      <c r="Q134" t="s">
         <v>882</v>
       </c>
-      <c r="R134" s="23" t="s">
+      <c r="R134" t="s">
         <v>755</v>
       </c>
     </row>
@@ -27316,16 +27169,16 @@
       <c r="F135" s="22">
         <v>4020324</v>
       </c>
-      <c r="N135" s="23" t="s">
+      <c r="N135" t="s">
         <v>594</v>
       </c>
-      <c r="O135" s="23" t="s">
+      <c r="O135" t="s">
         <v>848</v>
       </c>
-      <c r="Q135" s="25" t="s">
+      <c r="Q135" s="23" t="s">
         <v>836</v>
       </c>
-      <c r="R135" s="26" t="s">
+      <c r="R135" s="24" t="s">
         <v>568</v>
       </c>
     </row>
@@ -27333,31 +27186,31 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="23" t="s">
+      <c r="B136" t="s">
         <v>504</v>
       </c>
-      <c r="C136" s="23" t="s">
+      <c r="C136" t="s">
         <v>404</v>
       </c>
-      <c r="D136" s="23" t="s">
+      <c r="D136" t="s">
         <v>817</v>
       </c>
-      <c r="E136" s="23" t="s">
+      <c r="E136" t="s">
         <v>505</v>
       </c>
-      <c r="F136" s="23">
+      <c r="F136">
         <v>4030161</v>
       </c>
-      <c r="N136" s="23" t="s">
+      <c r="N136" t="s">
         <v>594</v>
       </c>
-      <c r="O136" s="23" t="s">
+      <c r="O136" t="s">
         <v>849</v>
       </c>
-      <c r="Q136" s="25" t="s">
+      <c r="Q136" s="23" t="s">
         <v>836</v>
       </c>
-      <c r="R136" s="26" t="s">
+      <c r="R136" s="24" t="s">
         <v>569</v>
       </c>
     </row>
@@ -27365,31 +27218,31 @@
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="23" t="s">
+      <c r="B137" t="s">
         <v>504</v>
       </c>
-      <c r="C137" s="23" t="s">
+      <c r="C137" t="s">
         <v>404</v>
       </c>
-      <c r="D137" s="23" t="s">
+      <c r="D137" t="s">
         <v>817</v>
       </c>
-      <c r="E137" s="23" t="s">
+      <c r="E137" t="s">
         <v>506</v>
       </c>
-      <c r="F137" s="23">
+      <c r="F137">
         <v>4030162</v>
       </c>
-      <c r="N137" s="23" t="s">
+      <c r="N137" t="s">
         <v>754</v>
       </c>
-      <c r="O137" s="23" t="s">
+      <c r="O137" t="s">
         <v>882</v>
       </c>
-      <c r="Q137" s="25" t="s">
+      <c r="Q137" s="23" t="s">
         <v>836</v>
       </c>
-      <c r="R137" s="23" t="s">
+      <c r="R137" t="s">
         <v>570</v>
       </c>
     </row>
@@ -27397,31 +27250,31 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="23" t="s">
+      <c r="B138" t="s">
         <v>504</v>
       </c>
-      <c r="C138" s="23" t="s">
+      <c r="C138" t="s">
         <v>404</v>
       </c>
-      <c r="D138" s="23" t="s">
+      <c r="D138" t="s">
         <v>818</v>
       </c>
-      <c r="E138" s="23" t="s">
+      <c r="E138" t="s">
         <v>507</v>
       </c>
-      <c r="F138" s="23">
+      <c r="F138">
         <v>4030151</v>
       </c>
-      <c r="N138" s="23" t="s">
+      <c r="N138" t="s">
         <v>754</v>
       </c>
-      <c r="O138" s="23" t="s">
+      <c r="O138" t="s">
         <v>883</v>
       </c>
-      <c r="Q138" s="24" t="s">
+      <c r="Q138" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="R138" s="23" t="s">
+      <c r="R138" t="s">
         <v>628</v>
       </c>
     </row>
@@ -27444,16 +27297,16 @@
       <c r="F139">
         <v>4030152</v>
       </c>
-      <c r="N139" s="23" t="s">
+      <c r="N139" t="s">
         <v>754</v>
       </c>
-      <c r="O139" s="23" t="s">
+      <c r="O139" t="s">
         <v>761</v>
       </c>
-      <c r="Q139" s="24" t="s">
+      <c r="Q139" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="R139" s="23" t="s">
+      <c r="R139" t="s">
         <v>961</v>
       </c>
     </row>
@@ -27461,31 +27314,31 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="23" t="s">
+      <c r="B140" t="s">
         <v>504</v>
       </c>
-      <c r="C140" s="23" t="s">
+      <c r="C140" t="s">
         <v>404</v>
       </c>
-      <c r="D140" s="23" t="s">
+      <c r="D140" t="s">
         <v>818</v>
       </c>
-      <c r="E140" s="23" t="s">
+      <c r="E140" t="s">
         <v>508</v>
       </c>
-      <c r="F140" s="23">
+      <c r="F140">
         <v>4030153</v>
       </c>
-      <c r="N140" s="23" t="s">
+      <c r="N140" t="s">
         <v>754</v>
       </c>
-      <c r="O140" s="23" t="s">
+      <c r="O140" t="s">
         <v>884</v>
       </c>
-      <c r="Q140" s="24" t="s">
+      <c r="Q140" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="R140" s="23" t="s">
+      <c r="R140" t="s">
         <v>963</v>
       </c>
     </row>
@@ -27493,31 +27346,31 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="23" t="s">
+      <c r="B141" t="s">
         <v>504</v>
       </c>
-      <c r="C141" s="23" t="s">
+      <c r="C141" t="s">
         <v>404</v>
       </c>
-      <c r="D141" s="23" t="s">
+      <c r="D141" t="s">
         <v>510</v>
       </c>
-      <c r="E141" s="23" t="s">
+      <c r="E141" t="s">
         <v>509</v>
       </c>
-      <c r="F141" s="23">
+      <c r="F141">
         <v>4030121</v>
       </c>
-      <c r="N141" s="23" t="s">
+      <c r="N141" t="s">
         <v>754</v>
       </c>
-      <c r="O141" s="23" t="s">
+      <c r="O141" t="s">
         <v>885</v>
       </c>
-      <c r="Q141" s="24" t="s">
+      <c r="Q141" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="R141" s="23" t="s">
+      <c r="R141" t="s">
         <v>962</v>
       </c>
     </row>
@@ -27525,25 +27378,25 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="23" t="s">
+      <c r="B142" t="s">
         <v>504</v>
       </c>
-      <c r="C142" s="23" t="s">
+      <c r="C142" t="s">
         <v>404</v>
       </c>
-      <c r="D142" s="23" t="s">
+      <c r="D142" t="s">
         <v>510</v>
       </c>
-      <c r="E142" s="23" t="s">
+      <c r="E142" t="s">
         <v>510</v>
       </c>
       <c r="F142">
         <v>4030122</v>
       </c>
-      <c r="N142" s="23" t="s">
+      <c r="N142" t="s">
         <v>769</v>
       </c>
-      <c r="O142" s="23" t="s">
+      <c r="O142" t="s">
         <v>886</v>
       </c>
       <c r="Q142" t="s">
@@ -27572,16 +27425,16 @@
       <c r="F143">
         <v>4030141</v>
       </c>
-      <c r="N143" s="23" t="s">
+      <c r="N143" t="s">
         <v>769</v>
       </c>
-      <c r="O143" s="23" t="s">
+      <c r="O143" t="s">
         <v>887</v>
       </c>
-      <c r="Q143" s="23" t="s">
+      <c r="Q143" t="s">
         <v>483</v>
       </c>
-      <c r="R143" s="23" t="s">
+      <c r="R143" t="s">
         <v>484</v>
       </c>
     </row>
@@ -27589,31 +27442,31 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="23" t="s">
+      <c r="B144" t="s">
         <v>504</v>
       </c>
-      <c r="C144" s="23" t="s">
+      <c r="C144" t="s">
         <v>404</v>
       </c>
-      <c r="D144" s="23" t="s">
+      <c r="D144" t="s">
         <v>819</v>
       </c>
-      <c r="E144" s="23" t="s">
+      <c r="E144" t="s">
         <v>512</v>
       </c>
-      <c r="F144" s="23">
+      <c r="F144">
         <v>4030142</v>
       </c>
-      <c r="N144" s="23" t="s">
+      <c r="N144" t="s">
         <v>769</v>
       </c>
-      <c r="O144" s="23" t="s">
+      <c r="O144" t="s">
         <v>888</v>
       </c>
-      <c r="Q144" s="23" t="s">
+      <c r="Q144" t="s">
         <v>483</v>
       </c>
-      <c r="R144" s="23" t="s">
+      <c r="R144" t="s">
         <v>485</v>
       </c>
     </row>
@@ -27636,10 +27489,10 @@
       <c r="F145">
         <v>4030143</v>
       </c>
-      <c r="N145" s="23" t="s">
+      <c r="N145" t="s">
         <v>769</v>
       </c>
-      <c r="O145" s="23" t="s">
+      <c r="O145" t="s">
         <v>889</v>
       </c>
       <c r="Q145" t="s">
@@ -27653,25 +27506,25 @@
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="23" t="s">
+      <c r="B146" t="s">
         <v>504</v>
       </c>
-      <c r="C146" s="23" t="s">
+      <c r="C146" t="s">
         <v>404</v>
       </c>
-      <c r="D146" s="23" t="s">
+      <c r="D146" t="s">
         <v>820</v>
       </c>
-      <c r="E146" s="23" t="s">
+      <c r="E146" t="s">
         <v>514</v>
       </c>
-      <c r="F146" s="23" t="s">
+      <c r="F146" t="s">
         <v>1074</v>
       </c>
-      <c r="N146" s="23" t="s">
+      <c r="N146" t="s">
         <v>769</v>
       </c>
-      <c r="O146" s="23" t="s">
+      <c r="O146" t="s">
         <v>890</v>
       </c>
       <c r="Q146" t="s">
@@ -27685,19 +27538,19 @@
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="23" t="s">
+      <c r="B147" t="s">
         <v>504</v>
       </c>
-      <c r="C147" s="23" t="s">
+      <c r="C147" t="s">
         <v>404</v>
       </c>
-      <c r="D147" s="23" t="s">
+      <c r="D147" t="s">
         <v>820</v>
       </c>
-      <c r="E147" s="23" t="s">
+      <c r="E147" t="s">
         <v>515</v>
       </c>
-      <c r="F147" s="23" t="s">
+      <c r="F147" t="s">
         <v>1075</v>
       </c>
       <c r="N147" t="s">
@@ -27706,10 +27559,10 @@
       <c r="O147" t="s">
         <v>814</v>
       </c>
-      <c r="Q147" s="23" t="s">
+      <c r="Q147" t="s">
         <v>793</v>
       </c>
-      <c r="R147" s="23" t="s">
+      <c r="R147" t="s">
         <v>417</v>
       </c>
     </row>
@@ -27738,10 +27591,10 @@
       <c r="O148" t="s">
         <v>483</v>
       </c>
-      <c r="Q148" s="24" t="s">
+      <c r="Q148" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="R148" s="23" t="s">
+      <c r="R148" t="s">
         <v>631</v>
       </c>
     </row>
@@ -27770,10 +27623,10 @@
       <c r="O149" t="s">
         <v>815</v>
       </c>
-      <c r="Q149" s="24" t="s">
+      <c r="Q149" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="R149" s="23" t="s">
+      <c r="R149" t="s">
         <v>974</v>
       </c>
     </row>
@@ -27781,16 +27634,16 @@
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="23" t="s">
+      <c r="B150" t="s">
         <v>504</v>
       </c>
-      <c r="C150" s="23" t="s">
+      <c r="C150" t="s">
         <v>404</v>
       </c>
-      <c r="D150" s="23" t="s">
+      <c r="D150" t="s">
         <v>821</v>
       </c>
-      <c r="E150" s="23" t="s">
+      <c r="E150" t="s">
         <v>518</v>
       </c>
       <c r="F150">
@@ -27802,10 +27655,10 @@
       <c r="O150" t="s">
         <v>816</v>
       </c>
-      <c r="Q150" s="24" t="s">
+      <c r="Q150" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="R150" s="23" t="s">
+      <c r="R150" t="s">
         <v>972</v>
       </c>
     </row>
@@ -27834,10 +27687,10 @@
       <c r="O151" t="s">
         <v>491</v>
       </c>
-      <c r="Q151" s="24" t="s">
+      <c r="Q151" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="R151" s="23" t="s">
+      <c r="R151" t="s">
         <v>973</v>
       </c>
     </row>
@@ -27845,25 +27698,25 @@
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="23" t="s">
+      <c r="B152" t="s">
         <v>504</v>
       </c>
-      <c r="C152" s="23" t="s">
+      <c r="C152" t="s">
         <v>519</v>
       </c>
-      <c r="D152" s="23" t="s">
+      <c r="D152" t="s">
         <v>822</v>
       </c>
-      <c r="E152" s="23" t="s">
+      <c r="E152" t="s">
         <v>520</v>
       </c>
-      <c r="F152" s="23">
+      <c r="F152">
         <v>4030232</v>
       </c>
-      <c r="Q152" s="24" t="s">
+      <c r="Q152" s="17" t="s">
         <v>612</v>
       </c>
-      <c r="R152" s="23" t="s">
+      <c r="R152" t="s">
         <v>917</v>
       </c>
     </row>
@@ -27886,10 +27739,10 @@
       <c r="F153">
         <v>4030211</v>
       </c>
-      <c r="Q153" s="24" t="s">
+      <c r="Q153" s="17" t="s">
         <v>612</v>
       </c>
-      <c r="R153" s="23" t="s">
+      <c r="R153" t="s">
         <v>914</v>
       </c>
     </row>
@@ -27912,10 +27765,10 @@
       <c r="F154">
         <v>4030212</v>
       </c>
-      <c r="Q154" s="24" t="s">
+      <c r="Q154" s="17" t="s">
         <v>612</v>
       </c>
-      <c r="R154" s="23" t="s">
+      <c r="R154" t="s">
         <v>916</v>
       </c>
     </row>
@@ -27938,10 +27791,10 @@
       <c r="F155">
         <v>4030213</v>
       </c>
-      <c r="Q155" s="24" t="s">
+      <c r="Q155" s="17" t="s">
         <v>612</v>
       </c>
-      <c r="R155" s="23" t="s">
+      <c r="R155" t="s">
         <v>915</v>
       </c>
     </row>
@@ -27949,25 +27802,25 @@
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="23" t="s">
+      <c r="B156" t="s">
         <v>504</v>
       </c>
-      <c r="C156" s="23" t="s">
+      <c r="C156" t="s">
         <v>519</v>
       </c>
-      <c r="D156" s="23" t="s">
+      <c r="D156" t="s">
         <v>824</v>
       </c>
-      <c r="E156" s="23" t="s">
+      <c r="E156" t="s">
         <v>524</v>
       </c>
-      <c r="F156" s="23">
+      <c r="F156">
         <v>4030241</v>
       </c>
-      <c r="Q156" s="23" t="s">
+      <c r="Q156" t="s">
         <v>852</v>
       </c>
-      <c r="R156" s="23" t="s">
+      <c r="R156" t="s">
         <v>657</v>
       </c>
     </row>
@@ -27990,10 +27843,10 @@
       <c r="F157">
         <v>4030242</v>
       </c>
-      <c r="Q157" s="23" t="s">
+      <c r="Q157" t="s">
         <v>852</v>
       </c>
-      <c r="R157" s="23" t="s">
+      <c r="R157" t="s">
         <v>655</v>
       </c>
     </row>
@@ -28016,10 +27869,10 @@
       <c r="F158">
         <v>4030221</v>
       </c>
-      <c r="Q158" s="23" t="s">
+      <c r="Q158" t="s">
         <v>852</v>
       </c>
-      <c r="R158" s="23" t="s">
+      <c r="R158" t="s">
         <v>656</v>
       </c>
     </row>
@@ -28027,25 +27880,25 @@
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="23" t="s">
+      <c r="B159" t="s">
         <v>504</v>
       </c>
-      <c r="C159" s="23" t="s">
+      <c r="C159" t="s">
         <v>519</v>
       </c>
-      <c r="D159" s="23" t="s">
+      <c r="D159" t="s">
         <v>825</v>
       </c>
-      <c r="E159" s="23" t="s">
+      <c r="E159" t="s">
         <v>527</v>
       </c>
-      <c r="F159" s="23">
+      <c r="F159">
         <v>4030222</v>
       </c>
-      <c r="Q159" s="23" t="s">
+      <c r="Q159" t="s">
         <v>852</v>
       </c>
-      <c r="R159" s="23" t="s">
+      <c r="R159" t="s">
         <v>658</v>
       </c>
     </row>
@@ -28079,19 +27932,19 @@
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="23" t="s">
+      <c r="B161" t="s">
         <v>504</v>
       </c>
-      <c r="C161" s="23" t="s">
+      <c r="C161" t="s">
         <v>519</v>
       </c>
-      <c r="D161" s="23" t="s">
+      <c r="D161" t="s">
         <v>826</v>
       </c>
-      <c r="E161" s="23" t="s">
+      <c r="E161" t="s">
         <v>529</v>
       </c>
-      <c r="F161" s="23">
+      <c r="F161">
         <v>4030251</v>
       </c>
       <c r="Q161" t="s">
@@ -28105,19 +27958,19 @@
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="23" t="s">
+      <c r="B162" t="s">
         <v>504</v>
       </c>
-      <c r="C162" s="23" t="s">
+      <c r="C162" t="s">
         <v>519</v>
       </c>
-      <c r="D162" s="23" t="s">
+      <c r="D162" t="s">
         <v>826</v>
       </c>
-      <c r="E162" s="23" t="s">
+      <c r="E162" t="s">
         <v>530</v>
       </c>
-      <c r="F162" s="23">
+      <c r="F162">
         <v>4030252</v>
       </c>
       <c r="Q162" t="s">
@@ -28146,10 +27999,10 @@
       <c r="F163">
         <v>4030261</v>
       </c>
-      <c r="Q163" s="23" t="s">
+      <c r="Q163" t="s">
         <v>888</v>
       </c>
-      <c r="R163" s="23" t="s">
+      <c r="R163" t="s">
         <v>777</v>
       </c>
     </row>
@@ -28172,10 +28025,10 @@
       <c r="F164">
         <v>4030262</v>
       </c>
-      <c r="Q164" s="23" t="s">
+      <c r="Q164" t="s">
         <v>888</v>
       </c>
-      <c r="R164" s="23" t="s">
+      <c r="R164" t="s">
         <v>775</v>
       </c>
     </row>
@@ -28183,25 +28036,25 @@
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="23" t="s">
+      <c r="B165" t="s">
         <v>504</v>
       </c>
-      <c r="C165" s="23" t="s">
+      <c r="C165" t="s">
         <v>519</v>
       </c>
-      <c r="D165" s="23" t="s">
+      <c r="D165" t="s">
         <v>827</v>
       </c>
-      <c r="E165" s="23" t="s">
+      <c r="E165" t="s">
         <v>533</v>
       </c>
-      <c r="F165" s="23">
+      <c r="F165">
         <v>4030263</v>
       </c>
-      <c r="Q165" s="23" t="s">
+      <c r="Q165" t="s">
         <v>888</v>
       </c>
-      <c r="R165" s="23" t="s">
+      <c r="R165" t="s">
         <v>776</v>
       </c>
     </row>
@@ -28224,10 +28077,10 @@
       <c r="F166">
         <v>4030351</v>
       </c>
-      <c r="Q166" s="23" t="s">
+      <c r="Q166" t="s">
         <v>808</v>
       </c>
-      <c r="R166" s="23" t="s">
+      <c r="R166" t="s">
         <v>467</v>
       </c>
     </row>
@@ -28250,10 +28103,10 @@
       <c r="F167">
         <v>4030352</v>
       </c>
-      <c r="Q167" s="23" t="s">
+      <c r="Q167" t="s">
         <v>808</v>
       </c>
-      <c r="R167" s="23" t="s">
+      <c r="R167" t="s">
         <v>466</v>
       </c>
     </row>
@@ -28276,10 +28129,10 @@
       <c r="F168">
         <v>4030353</v>
       </c>
-      <c r="Q168" s="23" t="s">
+      <c r="Q168" t="s">
         <v>854</v>
       </c>
-      <c r="R168" s="23" t="s">
+      <c r="R168" t="s">
         <v>665</v>
       </c>
     </row>
@@ -28302,10 +28155,10 @@
       <c r="F169">
         <v>4030341</v>
       </c>
-      <c r="Q169" s="23" t="s">
+      <c r="Q169" t="s">
         <v>854</v>
       </c>
-      <c r="R169" s="23" t="s">
+      <c r="R169" t="s">
         <v>666</v>
       </c>
     </row>
@@ -28313,25 +28166,25 @@
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="23" t="s">
+      <c r="B170" t="s">
         <v>504</v>
       </c>
-      <c r="C170" s="23" t="s">
+      <c r="C170" t="s">
         <v>534</v>
       </c>
-      <c r="D170" s="23" t="s">
+      <c r="D170" t="s">
         <v>828</v>
       </c>
-      <c r="E170" s="23" t="s">
+      <c r="E170" t="s">
         <v>538</v>
       </c>
-      <c r="F170" s="23">
+      <c r="F170">
         <v>4030342</v>
       </c>
-      <c r="Q170" s="23" t="s">
+      <c r="Q170" t="s">
         <v>854</v>
       </c>
-      <c r="R170" s="23" t="s">
+      <c r="R170" t="s">
         <v>664</v>
       </c>
     </row>
@@ -28354,10 +28207,10 @@
       <c r="F171">
         <v>4030343</v>
       </c>
-      <c r="Q171" s="23" t="s">
+      <c r="Q171" t="s">
         <v>866</v>
       </c>
-      <c r="R171" s="23" t="s">
+      <c r="R171" t="s">
         <v>707</v>
       </c>
     </row>
@@ -28365,25 +28218,25 @@
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="23" t="s">
+      <c r="B172" t="s">
         <v>504</v>
       </c>
-      <c r="C172" s="23" t="s">
+      <c r="C172" t="s">
         <v>534</v>
       </c>
-      <c r="D172" s="23" t="s">
+      <c r="D172" t="s">
         <v>829</v>
       </c>
-      <c r="E172" s="23" t="s">
+      <c r="E172" t="s">
         <v>540</v>
       </c>
-      <c r="F172" s="23">
+      <c r="F172">
         <v>4030321</v>
       </c>
-      <c r="Q172" s="23" t="s">
+      <c r="Q172" t="s">
         <v>866</v>
       </c>
-      <c r="R172" s="23" t="s">
+      <c r="R172" t="s">
         <v>708</v>
       </c>
     </row>
@@ -28391,25 +28244,25 @@
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="23" t="s">
+      <c r="B173" t="s">
         <v>504</v>
       </c>
-      <c r="C173" s="23" t="s">
+      <c r="C173" t="s">
         <v>534</v>
       </c>
-      <c r="D173" s="23" t="s">
+      <c r="D173" t="s">
         <v>829</v>
       </c>
-      <c r="E173" s="23" t="s">
+      <c r="E173" t="s">
         <v>541</v>
       </c>
-      <c r="F173" s="23">
+      <c r="F173">
         <v>4030322</v>
       </c>
-      <c r="Q173" s="23" t="s">
+      <c r="Q173" t="s">
         <v>866</v>
       </c>
-      <c r="R173" s="23" t="s">
+      <c r="R173" t="s">
         <v>709</v>
       </c>
     </row>
@@ -28417,25 +28270,25 @@
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="23" t="s">
+      <c r="B174" t="s">
         <v>504</v>
       </c>
-      <c r="C174" s="23" t="s">
+      <c r="C174" t="s">
         <v>534</v>
       </c>
-      <c r="D174" s="23" t="s">
+      <c r="D174" t="s">
         <v>829</v>
       </c>
-      <c r="E174" s="23" t="s">
+      <c r="E174" t="s">
         <v>542</v>
       </c>
-      <c r="F174" s="23">
+      <c r="F174">
         <v>4030323</v>
       </c>
-      <c r="Q174" s="23" t="s">
+      <c r="Q174" t="s">
         <v>883</v>
       </c>
-      <c r="R174" s="23" t="s">
+      <c r="R174" t="s">
         <v>759</v>
       </c>
     </row>
@@ -28458,10 +28311,10 @@
       <c r="F175">
         <v>4030331</v>
       </c>
-      <c r="Q175" s="23" t="s">
+      <c r="Q175" t="s">
         <v>883</v>
       </c>
-      <c r="R175" s="23" t="s">
+      <c r="R175" t="s">
         <v>758</v>
       </c>
     </row>
@@ -28469,25 +28322,25 @@
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="23" t="s">
+      <c r="B176" t="s">
         <v>504</v>
       </c>
-      <c r="C176" s="23" t="s">
+      <c r="C176" t="s">
         <v>534</v>
       </c>
-      <c r="D176" s="23" t="s">
+      <c r="D176" t="s">
         <v>830</v>
       </c>
-      <c r="E176" s="23" t="s">
+      <c r="E176" t="s">
         <v>544</v>
       </c>
-      <c r="F176" s="23">
+      <c r="F176">
         <v>4030332</v>
       </c>
-      <c r="Q176" s="23" t="s">
+      <c r="Q176" t="s">
         <v>883</v>
       </c>
-      <c r="R176" s="23" t="s">
+      <c r="R176" t="s">
         <v>785</v>
       </c>
     </row>
@@ -28495,25 +28348,25 @@
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="23" t="s">
+      <c r="B177" t="s">
         <v>504</v>
       </c>
-      <c r="C177" s="23" t="s">
+      <c r="C177" t="s">
         <v>534</v>
       </c>
-      <c r="D177" s="23" t="s">
+      <c r="D177" t="s">
         <v>830</v>
       </c>
-      <c r="E177" s="23" t="s">
+      <c r="E177" t="s">
         <v>545</v>
       </c>
-      <c r="F177" s="23">
+      <c r="F177">
         <v>4030333</v>
       </c>
-      <c r="Q177" s="24" t="s">
+      <c r="Q177" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="R177" s="23" t="s">
+      <c r="R177" t="s">
         <v>964</v>
       </c>
     </row>
@@ -28536,10 +28389,10 @@
       <c r="F178">
         <v>4030311</v>
       </c>
-      <c r="Q178" s="24" t="s">
+      <c r="Q178" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="R178" s="23" t="s">
+      <c r="R178" t="s">
         <v>965</v>
       </c>
     </row>
@@ -28562,10 +28415,10 @@
       <c r="F179">
         <v>4030312</v>
       </c>
-      <c r="Q179" s="24" t="s">
+      <c r="Q179" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="R179" s="23" t="s">
+      <c r="R179" t="s">
         <v>966</v>
       </c>
     </row>
@@ -28573,25 +28426,25 @@
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="23" t="s">
+      <c r="B180" t="s">
         <v>504</v>
       </c>
-      <c r="C180" s="23" t="s">
+      <c r="C180" t="s">
         <v>534</v>
       </c>
-      <c r="D180" s="23" t="s">
+      <c r="D180" t="s">
         <v>831</v>
       </c>
-      <c r="E180" s="23" t="s">
+      <c r="E180" t="s">
         <v>548</v>
       </c>
-      <c r="F180" s="23">
+      <c r="F180">
         <v>4030313</v>
       </c>
-      <c r="Q180" s="24" t="s">
+      <c r="Q180" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="R180" s="23" t="s">
+      <c r="R180" t="s">
         <v>967</v>
       </c>
     </row>
@@ -28599,25 +28452,25 @@
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="23" t="s">
+      <c r="B181" t="s">
         <v>504</v>
       </c>
-      <c r="C181" s="23" t="s">
+      <c r="C181" t="s">
         <v>549</v>
       </c>
-      <c r="D181" s="23" t="s">
+      <c r="D181" t="s">
         <v>832</v>
       </c>
-      <c r="E181" s="23" t="s">
+      <c r="E181" t="s">
         <v>550</v>
       </c>
-      <c r="F181" s="23">
+      <c r="F181">
         <v>4030431</v>
       </c>
-      <c r="Q181" s="23" t="s">
+      <c r="Q181" t="s">
         <v>855</v>
       </c>
-      <c r="R181" s="23" t="s">
+      <c r="R181" t="s">
         <v>668</v>
       </c>
     </row>
@@ -28640,10 +28493,10 @@
       <c r="F182">
         <v>4030432</v>
       </c>
-      <c r="Q182" s="23" t="s">
+      <c r="Q182" t="s">
         <v>855</v>
       </c>
-      <c r="R182" s="23" t="s">
+      <c r="R182" t="s">
         <v>667</v>
       </c>
     </row>
@@ -28666,10 +28519,10 @@
       <c r="F183">
         <v>4030433</v>
       </c>
-      <c r="Q183" s="23" t="s">
+      <c r="Q183" t="s">
         <v>855</v>
       </c>
-      <c r="R183" s="23" t="s">
+      <c r="R183" t="s">
         <v>669</v>
       </c>
     </row>
@@ -28692,10 +28545,10 @@
       <c r="F184">
         <v>4030434</v>
       </c>
-      <c r="Q184" s="24" t="s">
+      <c r="Q184" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="R184" s="23" t="s">
+      <c r="R184" t="s">
         <v>943</v>
       </c>
     </row>
@@ -28703,25 +28556,25 @@
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="23" t="s">
+      <c r="B185" t="s">
         <v>504</v>
       </c>
-      <c r="C185" s="23" t="s">
+      <c r="C185" t="s">
         <v>549</v>
       </c>
-      <c r="D185" s="23" t="s">
+      <c r="D185" t="s">
         <v>832</v>
       </c>
-      <c r="E185" s="23" t="s">
+      <c r="E185" t="s">
         <v>554</v>
       </c>
-      <c r="F185" s="23">
+      <c r="F185">
         <v>4030435</v>
       </c>
-      <c r="Q185" s="24" t="s">
+      <c r="Q185" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="R185" s="23" t="s">
+      <c r="R185" t="s">
         <v>946</v>
       </c>
     </row>
@@ -28744,10 +28597,10 @@
       <c r="F186">
         <v>4030421</v>
       </c>
-      <c r="Q186" s="24" t="s">
+      <c r="Q186" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="R186" s="23" t="s">
+      <c r="R186" t="s">
         <v>944</v>
       </c>
     </row>
@@ -28755,25 +28608,25 @@
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="23" t="s">
+      <c r="B187" t="s">
         <v>504</v>
       </c>
-      <c r="C187" s="23" t="s">
+      <c r="C187" t="s">
         <v>549</v>
       </c>
-      <c r="D187" s="23" t="s">
+      <c r="D187" t="s">
         <v>833</v>
       </c>
-      <c r="E187" s="23" t="s">
+      <c r="E187" t="s">
         <v>905</v>
       </c>
-      <c r="F187" s="23">
+      <c r="F187">
         <v>4030422</v>
       </c>
-      <c r="Q187" s="24" t="s">
+      <c r="Q187" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="R187" s="23" t="s">
+      <c r="R187" t="s">
         <v>945</v>
       </c>
     </row>
@@ -28796,10 +28649,10 @@
       <c r="F188">
         <v>4030423</v>
       </c>
-      <c r="Q188" s="24" t="s">
+      <c r="Q188" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="R188" s="23" t="s">
+      <c r="R188" t="s">
         <v>947</v>
       </c>
     </row>
@@ -28822,10 +28675,10 @@
       <c r="F189">
         <v>4030424</v>
       </c>
-      <c r="Q189" s="24" t="s">
+      <c r="Q189" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="R189" s="23" t="s">
+      <c r="R189" t="s">
         <v>948</v>
       </c>
     </row>
@@ -28848,10 +28701,10 @@
       <c r="F190">
         <v>4030425</v>
       </c>
-      <c r="Q190" s="24" t="s">
+      <c r="Q190" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="R190" s="23" t="s">
+      <c r="R190" t="s">
         <v>950</v>
       </c>
     </row>
@@ -28859,25 +28712,25 @@
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="23" t="s">
+      <c r="B191" t="s">
         <v>504</v>
       </c>
-      <c r="C191" s="23" t="s">
+      <c r="C191" t="s">
         <v>549</v>
       </c>
-      <c r="D191" s="23" t="s">
+      <c r="D191" t="s">
         <v>834</v>
       </c>
-      <c r="E191" s="23" t="s">
+      <c r="E191" t="s">
         <v>559</v>
       </c>
-      <c r="F191" s="23">
+      <c r="F191">
         <v>4030411</v>
       </c>
-      <c r="Q191" s="24" t="s">
+      <c r="Q191" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="R191" s="23" t="s">
+      <c r="R191" t="s">
         <v>949</v>
       </c>
     </row>
@@ -28885,25 +28738,25 @@
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="23" t="s">
+      <c r="B192" t="s">
         <v>504</v>
       </c>
-      <c r="C192" s="23" t="s">
+      <c r="C192" t="s">
         <v>549</v>
       </c>
-      <c r="D192" s="23" t="s">
+      <c r="D192" t="s">
         <v>834</v>
       </c>
-      <c r="E192" s="23" t="s">
+      <c r="E192" t="s">
         <v>560</v>
       </c>
-      <c r="F192" s="23">
+      <c r="F192">
         <v>4030412</v>
       </c>
-      <c r="Q192" s="24" t="s">
+      <c r="Q192" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="R192" s="23" t="s">
+      <c r="R192" t="s">
         <v>919</v>
       </c>
     </row>
@@ -28911,25 +28764,25 @@
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="23" t="s">
+      <c r="B193" t="s">
         <v>504</v>
       </c>
-      <c r="C193" s="23" t="s">
+      <c r="C193" t="s">
         <v>549</v>
       </c>
-      <c r="D193" s="23" t="s">
+      <c r="D193" t="s">
         <v>834</v>
       </c>
-      <c r="E193" s="23" t="s">
+      <c r="E193" t="s">
         <v>561</v>
       </c>
-      <c r="F193" s="23">
+      <c r="F193">
         <v>4030413</v>
       </c>
-      <c r="Q193" s="24" t="s">
+      <c r="Q193" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="R193" s="23" t="s">
+      <c r="R193" t="s">
         <v>920</v>
       </c>
     </row>
@@ -28952,10 +28805,10 @@
       <c r="F194">
         <v>4030414</v>
       </c>
-      <c r="Q194" s="24" t="s">
+      <c r="Q194" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="R194" s="23" t="s">
+      <c r="R194" t="s">
         <v>918</v>
       </c>
     </row>
@@ -28978,10 +28831,10 @@
       <c r="F195">
         <v>4030415</v>
       </c>
-      <c r="Q195" s="24" t="s">
+      <c r="Q195" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="R195" s="23" t="s">
+      <c r="R195" t="s">
         <v>921</v>
       </c>
     </row>
@@ -29053,7 +28906,7 @@
       <c r="E198" s="20" t="s">
         <v>567</v>
       </c>
-      <c r="F198" s="23">
+      <c r="F198">
         <v>4040253</v>
       </c>
       <c r="Q198" s="18" t="s">
@@ -29131,7 +28984,7 @@
       <c r="E201" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="F201" s="23">
+      <c r="F201">
         <v>4040223</v>
       </c>
       <c r="Q201" s="18" t="s">
@@ -29183,7 +29036,7 @@
       <c r="E203" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="F203" s="23">
+      <c r="F203">
         <v>4040232</v>
       </c>
       <c r="Q203" s="18" t="s">
@@ -29313,7 +29166,7 @@
       <c r="E208" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="F208" s="23">
+      <c r="F208">
         <v>4040241</v>
       </c>
       <c r="Q208" s="21" t="s">
@@ -29391,7 +29244,7 @@
       <c r="E211" s="18" t="s">
         <v>907</v>
       </c>
-      <c r="F211" s="23">
+      <c r="F211">
         <v>4040151</v>
       </c>
       <c r="Q211" s="18" t="s">
@@ -29469,7 +29322,7 @@
       <c r="E214" s="20" t="s">
         <v>583</v>
       </c>
-      <c r="F214" s="23">
+      <c r="F214">
         <v>4040141</v>
       </c>
       <c r="Q214" s="18" t="s">
@@ -29573,7 +29426,7 @@
       <c r="E218" s="20" t="s">
         <v>908</v>
       </c>
-      <c r="F218" s="23">
+      <c r="F218">
         <v>4040112</v>
       </c>
       <c r="Q218" s="21" t="s">
@@ -29625,7 +29478,7 @@
       <c r="E220" s="20" t="s">
         <v>588</v>
       </c>
-      <c r="F220" s="23">
+      <c r="F220">
         <v>4040121</v>
       </c>
       <c r="Q220" s="21" t="s">
@@ -29729,7 +29582,7 @@
       <c r="E224" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="F224" s="23">
+      <c r="F224">
         <v>4040132</v>
       </c>
       <c r="Q224" s="18" t="s">
@@ -29755,7 +29608,7 @@
       <c r="E225" s="20" t="s">
         <v>593</v>
       </c>
-      <c r="F225" s="23">
+      <c r="F225">
         <v>4040133</v>
       </c>
       <c r="Q225" s="18" t="s">
@@ -29781,7 +29634,7 @@
       <c r="E226" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="F226" s="23">
+      <c r="F226">
         <v>4040341</v>
       </c>
       <c r="Q226" s="21" t="s">
@@ -29807,7 +29660,7 @@
       <c r="E227" s="18" t="s">
         <v>596</v>
       </c>
-      <c r="F227" s="23">
+      <c r="F227">
         <v>4040342</v>
       </c>
       <c r="Q227" s="21" t="s">
@@ -29833,7 +29686,7 @@
       <c r="E228" s="18" t="s">
         <v>597</v>
       </c>
-      <c r="F228" s="23">
+      <c r="F228">
         <v>4040343</v>
       </c>
       <c r="Q228" s="21" t="s">
@@ -29963,7 +29816,7 @@
       <c r="E233" s="18" t="s">
         <v>909</v>
       </c>
-      <c r="F233" s="23">
+      <c r="F233">
         <v>4040352</v>
       </c>
       <c r="Q233" s="18" t="s">
@@ -29989,7 +29842,7 @@
       <c r="E234" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="F234" s="23">
+      <c r="F234">
         <v>4040353</v>
       </c>
       <c r="Q234" s="18" t="s">
@@ -30015,7 +29868,7 @@
       <c r="E235" s="18" t="s">
         <v>603</v>
       </c>
-      <c r="F235" s="23">
+      <c r="F235">
         <v>4040321</v>
       </c>
       <c r="Q235" s="18" t="s">
@@ -30041,7 +29894,7 @@
       <c r="E236" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="F236" s="23">
+      <c r="F236">
         <v>4040322</v>
       </c>
       <c r="Q236" s="18" t="s">
@@ -30119,7 +29972,7 @@
       <c r="E239" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="F239" s="23">
+      <c r="F239">
         <v>4040332</v>
       </c>
       <c r="Q239" s="18" t="s">
@@ -30282,7 +30135,7 @@
         <v>499</v>
       </c>
       <c r="R245" s="18" t="s">
-        <v>901</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
@@ -36791,26 +36644,26 @@
     <sortCondition ref="Q2:Q495"/>
     <sortCondition ref="R2:R495"/>
   </sortState>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F2:F135">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:F240">
-    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F241:F360">
-    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O151 O496:O1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -36820,15 +36673,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F61D857ACC8084D9287671D8B7E15F4" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c3a67db788bfb057b2db4972c06362d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="92042fd9-f4c9-49ed-97f1-ba485e322b1e" xmlns:ns3="744cc826-a471-4feb-879c-6424ce8a761f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13059b5e6b4741244ec9ec4e04bff113" ns2:_="" ns3:_="">
     <xsd:import namespace="92042fd9-f4c9-49ed-97f1-ba485e322b1e"/>
@@ -37063,15 +36907,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA7685D-B04F-4991-951F-5668DE28AE41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D52A5182-A145-49DC-8B93-E3BAA13C11F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37088,4 +36933,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA7685D-B04F-4991-951F-5668DE28AE41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SCH-STH/Impact assessments/Kenya/ke_sch_sth_sppm_202403_1_wash.xlsx
+++ b/SCH-STH/Impact assessments/Kenya/ke_sch_sth_sppm_202403_1_wash.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Kenya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7928672-8486-4FF5-BC92-194C9CE5FE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7411C3-2D01-4548-A6FA-89ECDA989E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7722" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7724" uniqueCount="1095">
   <si>
     <t>type</t>
   </si>
@@ -3926,7 +3926,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19:H20"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4337,11 +4337,14 @@
       <c r="B21" t="s">
         <v>360</v>
       </c>
+      <c r="H21" s="7" t="s">
+        <v>1079</v>
+      </c>
       <c r="I21" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -4356,6 +4359,9 @@
       </c>
       <c r="G22" s="14" t="s">
         <v>370</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>1079</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>363</v>
@@ -4694,7 +4700,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>8</v>
       </c>
@@ -4848,7 +4854,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>8</v>
       </c>
@@ -4874,7 +4880,7 @@
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>306</v>
       </c>
@@ -4965,7 +4971,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>358</v>
       </c>
@@ -36949,15 +36955,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F61D857ACC8084D9287671D8B7E15F4" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c3a67db788bfb057b2db4972c06362d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="92042fd9-f4c9-49ed-97f1-ba485e322b1e" xmlns:ns3="744cc826-a471-4feb-879c-6424ce8a761f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="13059b5e6b4741244ec9ec4e04bff113" ns2:_="" ns3:_="">
     <xsd:import namespace="92042fd9-f4c9-49ed-97f1-ba485e322b1e"/>
@@ -37192,15 +37189,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA7685D-B04F-4991-951F-5668DE28AE41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D52A5182-A145-49DC-8B93-E3BAA13C11F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37217,4 +37215,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA7685D-B04F-4991-951F-5668DE28AE41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>